--- a/conf/preg/preg_context.xlsx
+++ b/conf/preg/preg_context.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6283" uniqueCount="1205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6288" uniqueCount="1207">
   <si>
     <t>#   ******************************************************************************</t>
   </si>
@@ -3153,11 +3153,11 @@
   <si>
     <r>
       <rPr>
-        <b val="true"/>
         <sz val="11"/>
-        <color rgb="FF89CFF0"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>#Still has dysmenorrhea x 2 days associated with n/v. Other physician recommended </t>
     </r>
@@ -3167,18 +3167,10 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
-      <t>Mirena IUD</t>
+      <t>Mirena IUD.</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
   </si>
   <si>
     <t>recommendation for</t>
@@ -3557,6 +3549,27 @@
   </si>
   <si>
     <t>won ' t</t>
+  </si>
+  <si>
+    <t>#9) Contraception  IUD after delivery, does not want BTL</t>
+  </si>
+  <si>
+    <t>#Pt chose IUD at postpartum visit as post-partum contraception.</t>
+  </si>
+  <si>
+    <t>postpartum</t>
+  </si>
+  <si>
+    <t>post partum</t>
+  </si>
+  <si>
+    <t>post - partum</t>
+  </si>
+  <si>
+    <t>#She would like to avoid surgery and is going to start taking Vit d, spoke with Sandy who recommended 2000 iud.</t>
+  </si>
+  <si>
+    <t>&gt; 0</t>
   </si>
   <si>
     <r>
@@ -3567,7 +3580,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>#9) Contraception  </t>
+      <t>#- I am worried that </t>
     </r>
     <r>
       <rPr>
@@ -3577,8 +3590,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>IUD after delivery, does not want BTL</t>
+      <t>Mirena may complicate abdominal pain management.</t>
     </r>
+  </si>
+  <si>
+    <t>worried</t>
   </si>
   <si>
     <r>
@@ -3589,7 +3605,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>#Pt chose </t>
+      <t>#Plan  TSH, ASSAY OF ACTH, TOTAL CORTISOL    V25.9 Birth control  Comment  Discussed options.  Plan </t>
     </r>
     <r>
       <rPr>
@@ -3599,17 +3615,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>IUD at postpartum visit as post-partum contraception.</t>
+      <t>IUD next month.  Plan  TSH, ASSAY OF ACTH, TOTAL CORTISOL</t>
     </r>
   </si>
   <si>
-    <t>postpartum</t>
-  </si>
-  <si>
-    <t>post partum</t>
-  </si>
-  <si>
-    <t>post - partum</t>
+    <t>plan</t>
   </si>
   <si>
     <r>
@@ -3620,7 +3630,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>#She would like to avoid surgery and is going to start taking Vit d, spoke with Sandy who recommended 2000 </t>
+      <t>#She has used condoms, an </t>
     </r>
     <r>
       <rPr>
@@ -3630,11 +3640,210 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>iud.</t>
+      <t>IUD, and BCP but had some problems with these.</t>
     </r>
   </si>
   <si>
-    <t>&gt; 0</t>
+    <t>has used</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>#The patient chose to obtain a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>paragard as contraception at her postpartum visit.</t>
+    </r>
+  </si>
+  <si>
+    <t>chose</t>
+  </si>
+  <si>
+    <t>chooses</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>#She stated she has received the information from Dr. Chaudhari but looked it up online and was concerned about  being able to feel the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>IUD  in place.</t>
+    </r>
+  </si>
+  <si>
+    <t>received the information</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>#Brought her a sample of the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Mirena and let her feel the strings.</t>
+    </r>
+  </si>
+  <si>
+    <t>sample of</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>#She had a miscarriage in July 2010 after becoming pregnancy soon after stopping DepoProvera that she use for a year.  She used an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>IUD for about 2 years before that.  She has a lot of nausea and vomiting.</t>
+    </r>
+  </si>
+  <si>
+    <t>for about &gt; 0 year</t>
+  </si>
+  <si>
+    <t>for about &gt; 1 years</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Mirena IUD, concerned about effects of exogenous hormones on mood.</t>
+    </r>
+  </si>
+  <si>
+    <t>concerned</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>#Minipill today.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>IUD in 5 wks.  RTC 3 wks or earlier prn.</t>
+    </r>
+  </si>
+  <si>
+    <t>in &gt; 1 weeks</t>
+  </si>
+  <si>
+    <t>in &gt; 1  wks</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>#She tried the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Mirena IUD and had bleeding for 3 months and had to have it out.</t>
+    </r>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>have it out</t>
+  </si>
+  <si>
+    <t>had it out</t>
+  </si>
+  <si>
+    <t>taken it out</t>
+  </si>
+  <si>
+    <t>take it out</t>
+  </si>
+  <si>
+    <t>take out</t>
   </si>
   <si>
     <r>
@@ -3645,7 +3854,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>#- I am worried that </t>
+      <t>#Pt given </t>
     </r>
     <r>
       <rPr>
@@ -3663,332 +3872,11 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t> may complicate abdominal pain management.</t>
+      <t> pamphlet as a possibility for non-estrogen contraception given HTN.</t>
     </r>
   </si>
   <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF89CFF0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>#Plan  TSH, ASSAY OF ACTH, TOTAL CORTISOL    V25.9 Birth control  Comment  Discussed options.  Plan </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>IUD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t> next month.  Plan  TSH, ASSAY OF ACTH, TOTAL CORTISOL</t>
-    </r>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF89CFF0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>#She has used condoms, an </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>IUD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>, and BCP but had some problems with these.</t>
-    </r>
-  </si>
-  <si>
-    <t>has used</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF89CFF0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>#The patient chose to obtain a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>paragard</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t> as contraception at her postpartum visit.</t>
-    </r>
-  </si>
-  <si>
-    <t>chose</t>
-  </si>
-  <si>
-    <t>chooses</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF89CFF0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>#She stated she has received the information from Dr. Chaudhari but looked it up online and was concerned about  being able to feel the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>IUD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>  in place.</t>
-    </r>
-  </si>
-  <si>
-    <t>received the information</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF89CFF0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>#Brought her a sample of the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Mirena</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t> and let her feel the strings.</t>
-    </r>
-  </si>
-  <si>
-    <t>sample of</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF89CFF0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>#She had a miscarriage in July 2010 after becoming pregnancy soon after stopping DepoProvera that she use for a year.  She used an </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>IUD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t> for about 2 years before that.  She has a lot of nausea and vomiting.</t>
-    </r>
-  </si>
-  <si>
-    <t>for about &gt; 0 year</t>
-  </si>
-  <si>
-    <t>for about &gt; 1 years</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF89CFF0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Mirena IUD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>, concerned about effects of exogenous hormones on mood.</t>
-    </r>
-  </si>
-  <si>
-    <t>concerned</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF89CFF0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>#Minipill today.  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>IUD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t> in 5 wks.  RTC 3 wks or earlier prn.</t>
-    </r>
-  </si>
-  <si>
-    <t>in &gt; 1 weeks</t>
-  </si>
-  <si>
-    <t>in &gt; 1  wks</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF89CFF0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>#She tried the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Mirena IUD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t> and had bleeding for 3 months and had to have it out.</t>
-    </r>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>have it out</t>
-  </si>
-  <si>
-    <t>had it out</t>
-  </si>
-  <si>
-    <t>taken it out</t>
-  </si>
-  <si>
-    <t>take it out</t>
-  </si>
-  <si>
-    <t>take out</t>
+    <t>pamphlet</t>
   </si>
 </sst>
 </file>
@@ -4041,19 +3929,6 @@
       <color rgb="FF89CFF0"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF89CFF0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -4062,6 +3937,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF89CFF0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4127,11 +4015,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4212,19 +4100,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1746"/>
+  <dimension ref="A1:F1749"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1709" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1741" activeCellId="0" sqref="E1741:E1746"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1726" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1750" activeCellId="0" sqref="E1750"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28663,7 +28550,7 @@
       </c>
     </row>
     <row r="1517" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1517" s="0" t="s">
+      <c r="A1517" s="5" t="s">
         <v>1043</v>
       </c>
     </row>
@@ -30519,12 +30406,12 @@
       </c>
     </row>
     <row r="1693" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1693" s="5" t="s">
+      <c r="A1693" s="6" t="s">
         <v>1170</v>
       </c>
     </row>
     <row r="1696" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1696" s="5" t="s">
+      <c r="A1696" s="6" t="s">
         <v>1171</v>
       </c>
     </row>
@@ -30580,7 +30467,7 @@
       </c>
     </row>
     <row r="1702" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1702" s="5" t="s">
+      <c r="A1702" s="6" t="s">
         <v>1175</v>
       </c>
     </row>
@@ -30602,7 +30489,7 @@
       </c>
     </row>
     <row r="1705" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1705" s="0" t="s">
+      <c r="A1705" s="5" t="s">
         <v>1177</v>
       </c>
     </row>
@@ -30624,7 +30511,7 @@
       </c>
     </row>
     <row r="1708" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1708" s="0" t="s">
+      <c r="A1708" s="5" t="s">
         <v>1179</v>
       </c>
     </row>
@@ -30646,7 +30533,7 @@
       </c>
     </row>
     <row r="1711" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1711" s="0" t="s">
+      <c r="A1711" s="5" t="s">
         <v>1181</v>
       </c>
     </row>
@@ -30668,7 +30555,7 @@
       </c>
     </row>
     <row r="1714" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1714" s="0" t="s">
+      <c r="A1714" s="5" t="s">
         <v>1183</v>
       </c>
     </row>
@@ -30724,7 +30611,7 @@
       </c>
     </row>
     <row r="1719" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1719" s="0" t="s">
+      <c r="A1719" s="5" t="s">
         <v>1186</v>
       </c>
     </row>
@@ -30763,7 +30650,7 @@
       </c>
     </row>
     <row r="1723" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1723" s="0" t="s">
+      <c r="A1723" s="5" t="s">
         <v>1188</v>
       </c>
     </row>
@@ -30785,7 +30672,7 @@
       </c>
     </row>
     <row r="1726" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1726" s="0" t="s">
+      <c r="A1726" s="5" t="s">
         <v>1190</v>
       </c>
     </row>
@@ -30824,7 +30711,7 @@
       </c>
     </row>
     <row r="1731" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1731" s="0" t="s">
+      <c r="A1731" s="5" t="s">
         <v>1193</v>
       </c>
     </row>
@@ -30846,7 +30733,7 @@
       </c>
     </row>
     <row r="1734" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1734" s="0" t="s">
+      <c r="A1734" s="5" t="s">
         <v>1195</v>
       </c>
     </row>
@@ -30885,7 +30772,7 @@
       </c>
     </row>
     <row r="1739" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1739" s="0" t="s">
+      <c r="A1739" s="5" t="s">
         <v>1198</v>
       </c>
     </row>
@@ -31006,6 +30893,28 @@
       </c>
       <c r="E1746" s="0" t="n">
         <v>30</v>
+      </c>
+    </row>
+    <row r="1748" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1748" s="0" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="1749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1749" s="0" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B1749" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1749" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1749" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1749" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/conf/preg/preg_context.xlsx
+++ b/conf/preg/preg_context.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="preg_context" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,3146 +20,3633 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6288" uniqueCount="1207">
-  <si>
-    <t>#   ******************************************************************************</t>
-  </si>
-  <si>
-    <t>#   * Copyright  2017  Department of Biomedical Informatics, University of Utah</t>
-  </si>
-  <si>
-    <t>#   * &lt;p&gt;</t>
-  </si>
-  <si>
-    <t>#   * Licensed under the Apache License, Version 2.0 (the "License");</t>
-  </si>
-  <si>
-    <t>#   * you may not use this file except in compliance with the License.</t>
-  </si>
-  <si>
-    <t>#   * You may obtain a copy of the License at</t>
-  </si>
-  <si>
-    <t>#   * http://www.apache.org/licenses/LICENSE-2.0</t>
-  </si>
-  <si>
-    <t>#   * Unless required by applicable law or agreed to in writing, software</t>
-  </si>
-  <si>
-    <t>#   * distributed under the License is distributed on an "AS IS" BASIS,</t>
-  </si>
-  <si>
-    <t>#   * WITHOUT WARRANTIES OR CONDITIONS OF ANY KIND, either express or implied.</t>
-  </si>
-  <si>
-    <t>#   * See the License for the specific language governing permissions and</t>
-  </si>
-  <si>
-    <t>#   Special thanks to Olga Patterson and Guy Divita for contributing rules as part of this rule set</t>
-  </si>
-  <si>
-    <t>#Define which features will be assigned values in an annotation type ("Concept" in this case)</t>
-  </si>
-  <si>
-    <t>@CONCEPT_FEATURES</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>Negation</t>
-  </si>
-  <si>
-    <t>Certainty</t>
-  </si>
-  <si>
-    <t>Temporality</t>
-  </si>
-  <si>
-    <t>Experiencer</t>
-  </si>
-  <si>
-    <t>#Define the values that a feature can have, the 1st value is the default value</t>
-  </si>
-  <si>
-    <t>#The following definitions will be used as an index for FastContext to find the corresponding Feature to assign the modifier</t>
-  </si>
-  <si>
-    <t>#value, once a modifier value is available.</t>
-  </si>
-  <si>
-    <t>#In this case the "Negation" feature has two values: "affirm" and "negated", "affirm" is the default value.</t>
-  </si>
-  <si>
-    <t>@FEATURE_VALUES</t>
-  </si>
-  <si>
-    <t>affirm</t>
-  </si>
-  <si>
-    <t>negated</t>
-  </si>
-  <si>
-    <t>certain</t>
-  </si>
-  <si>
-    <t>uncertain</t>
-  </si>
-  <si>
-    <t>present</t>
-  </si>
-  <si>
-    <t>historical</t>
-  </si>
-  <si>
-    <t>hypothetical</t>
-  </si>
-  <si>
-    <t>patient</t>
-  </si>
-  <si>
-    <t>nonpatient</t>
-  </si>
-  <si>
-    <t>#rule string</t>
-  </si>
-  <si>
-    <t>direction</t>
-  </si>
-  <si>
-    <t>trigger type</t>
-  </si>
-  <si>
-    <t>modifier</t>
-  </si>
-  <si>
-    <t>window size</t>
-  </si>
-  <si>
-    <t>&gt; 0 -month of</t>
-  </si>
-  <si>
-    <t>forward</t>
-  </si>
-  <si>
-    <t>trigger</t>
-  </si>
-  <si>
-    <t>&gt; 0 -months of</t>
-  </si>
-  <si>
-    <t>&gt; 0 -year of</t>
-  </si>
-  <si>
-    <t>&gt; 0 -years of</t>
-  </si>
-  <si>
-    <t>&gt; 0 month ago</t>
-  </si>
-  <si>
-    <t>backward</t>
-  </si>
-  <si>
-    <t>&gt; 0 month of</t>
-  </si>
-  <si>
-    <t>&gt; 0 months ago</t>
-  </si>
-  <si>
-    <t>&gt; 0 months of</t>
-  </si>
-  <si>
-    <t>&gt; 0 year ago</t>
-  </si>
-  <si>
-    <t>&gt; 0 year of</t>
-  </si>
-  <si>
-    <t>&gt; 0 years ago</t>
-  </si>
-  <si>
-    <t>&gt; 0 years of</t>
-  </si>
-  <si>
-    <t>&gt; 0 yrs ago</t>
-  </si>
-  <si>
-    <t>&gt; 1 -week of</t>
-  </si>
-  <si>
-    <t>&gt; 1 -weeks of</t>
-  </si>
-  <si>
-    <t>&gt; 1 week ago</t>
-  </si>
-  <si>
-    <t>&gt; 1 week of</t>
-  </si>
-  <si>
-    <t>&gt; 1 weeks ago</t>
-  </si>
-  <si>
-    <t>&gt; 1 weeks of</t>
-  </si>
-  <si>
-    <t>&gt; 13 -day of</t>
-  </si>
-  <si>
-    <t>&gt; 13 -days of</t>
-  </si>
-  <si>
-    <t>&gt; 13 day of</t>
-  </si>
-  <si>
-    <t>&gt; 13 days of</t>
-  </si>
-  <si>
-    <t>#\w+ no</t>
-  </si>
-  <si>
-    <t>termination</t>
-  </si>
-  <si>
-    <t>\w+ no</t>
-  </si>
-  <si>
-    <t>absence of a</t>
-  </si>
-  <si>
-    <t>absence of</t>
-  </si>
-  <si>
-    <t>adequate to rule her out for</t>
-  </si>
-  <si>
-    <t>adequate to rule her out</t>
-  </si>
-  <si>
-    <t>adequate to rule him out for</t>
-  </si>
-  <si>
-    <t>adequate to rule him out</t>
-  </si>
-  <si>
-    <t>adequate to rule out for</t>
-  </si>
-  <si>
-    <t>adequate to rule out</t>
-  </si>
-  <si>
-    <t>adequate to rule the patient out against</t>
-  </si>
-  <si>
-    <t>adequate to rule the patient out for</t>
-  </si>
-  <si>
-    <t>adequate to rule the patient out</t>
-  </si>
-  <si>
-    <t>#after</t>
-  </si>
-  <si>
-    <t>both</t>
-  </si>
-  <si>
-    <t>pseudo</t>
-  </si>
-  <si>
-    <t>although</t>
-  </si>
-  <si>
-    <t>#Shock, resolved unknown etiology, Patient presents with encephalopathy, non focal neurologic exam, CN nerve exam WNL.</t>
-  </si>
-  <si>
-    <t>presents with</t>
-  </si>
-  <si>
-    <t>presented with</t>
-  </si>
-  <si>
-    <t>and \w+ \w+ shown</t>
-  </si>
-  <si>
-    <t>and \w+ \w+ shows</t>
-  </si>
-  <si>
-    <t>and \w+ \w+ show</t>
-  </si>
-  <si>
-    <t>and \w+ shown</t>
-  </si>
-  <si>
-    <t>and \w+ shows</t>
-  </si>
-  <si>
-    <t>and \w+ show</t>
-  </si>
-  <si>
-    <t>and did</t>
-  </si>
-  <si>
-    <t>and he had</t>
-  </si>
-  <si>
-    <t>and he was noted to have</t>
-  </si>
-  <si>
-    <t>and he was</t>
-  </si>
-  <si>
-    <t>and noted to have</t>
-  </si>
-  <si>
-    <t>and she had</t>
-  </si>
-  <si>
-    <t>and she was noted to have</t>
-  </si>
-  <si>
-    <t>and she was</t>
-  </si>
-  <si>
-    <t>and the patient had</t>
-  </si>
-  <si>
-    <t>and the patient was</t>
-  </si>
-  <si>
-    <t>and with only</t>
-  </si>
-  <si>
-    <t>any other</t>
-  </si>
-  <si>
-    <t>#window size</t>
-  </si>
-  <si>
-    <t>#any</t>
-  </si>
-  <si>
-    <t>apart from</t>
-  </si>
-  <si>
-    <t>appears to</t>
-  </si>
-  <si>
-    <t>are negative</t>
-  </si>
-  <si>
-    <t>are no longer</t>
-  </si>
-  <si>
-    <t>are ruled out</t>
-  </si>
-  <si>
-    <t>are stopped</t>
-  </si>
-  <si>
-    <t>as a  for</t>
-  </si>
-  <si>
-    <t>as a cause for</t>
-  </si>
-  <si>
-    <t>as a cause of</t>
-  </si>
-  <si>
-    <t>as a etiology for</t>
-  </si>
-  <si>
-    <t>as a etiology of</t>
-  </si>
-  <si>
-    <t>as a reason for</t>
-  </si>
-  <si>
-    <t>as a reason of</t>
-  </si>
-  <si>
-    <t>as a secondary cause for</t>
-  </si>
-  <si>
-    <t>as a secondary cause of</t>
-  </si>
-  <si>
-    <t>as a secondary etiology for</t>
-  </si>
-  <si>
-    <t>as a secondary etiology of</t>
-  </si>
-  <si>
-    <t>as a secondary origin for</t>
-  </si>
-  <si>
-    <t>as a secondary origin of</t>
-  </si>
-  <si>
-    <t>as a secondary reason for</t>
-  </si>
-  <si>
-    <t>as a secondary reason of</t>
-  </si>
-  <si>
-    <t>as a secondary source for</t>
-  </si>
-  <si>
-    <t>as a secondary source of</t>
-  </si>
-  <si>
-    <t>as a source for</t>
-  </si>
-  <si>
-    <t>as a source of</t>
-  </si>
-  <si>
-    <t>as an cause for</t>
-  </si>
-  <si>
-    <t>as an cause of</t>
-  </si>
-  <si>
-    <t>as an etiology for</t>
-  </si>
-  <si>
-    <t>as an etiology of</t>
-  </si>
-  <si>
-    <t>as an origin for</t>
-  </si>
-  <si>
-    <t>as an origin of</t>
-  </si>
-  <si>
-    <t>as an reason for</t>
-  </si>
-  <si>
-    <t>as an reason of</t>
-  </si>
-  <si>
-    <t>as an secondary cause for</t>
-  </si>
-  <si>
-    <t>as an secondary cause of</t>
-  </si>
-  <si>
-    <t>as an secondary etiology for</t>
-  </si>
-  <si>
-    <t>as an secondary etiology of</t>
-  </si>
-  <si>
-    <t>as an secondary origin for</t>
-  </si>
-  <si>
-    <t>as an secondary origin of</t>
-  </si>
-  <si>
-    <t>as an secondary reason for</t>
-  </si>
-  <si>
-    <t>as an secondary reason of</t>
-  </si>
-  <si>
-    <t>as an secondary source for</t>
-  </si>
-  <si>
-    <t>as an secondary source of</t>
-  </si>
-  <si>
-    <t>as an source for</t>
-  </si>
-  <si>
-    <t>as an source of</t>
-  </si>
-  <si>
-    <t>as has</t>
-  </si>
-  <si>
-    <t>as needed</t>
-  </si>
-  <si>
-    <t>as the cause for</t>
-  </si>
-  <si>
-    <t>as the cause of</t>
-  </si>
-  <si>
-    <t>as the etiology for</t>
-  </si>
-  <si>
-    <t>as the etiology of</t>
-  </si>
-  <si>
-    <t>as the origin for</t>
-  </si>
-  <si>
-    <t>as the origin of</t>
-  </si>
-  <si>
-    <t>as the reason for</t>
-  </si>
-  <si>
-    <t>as the reason of</t>
-  </si>
-  <si>
-    <t>as the secondary cause for</t>
-  </si>
-  <si>
-    <t>as the secondary cause of</t>
-  </si>
-  <si>
-    <t>as the secondary etiology for</t>
-  </si>
-  <si>
-    <t>as the secondary etiology of</t>
-  </si>
-  <si>
-    <t>as the secondary origin for</t>
-  </si>
-  <si>
-    <t>as the secondary origin of</t>
-  </si>
-  <si>
-    <t>as the secondary reason for</t>
-  </si>
-  <si>
-    <t>as the secondary reason of</t>
-  </si>
-  <si>
-    <t>as the secondary source for</t>
-  </si>
-  <si>
-    <t>as the secondary source of</t>
-  </si>
-  <si>
-    <t>as the source for</t>
-  </si>
-  <si>
-    <t>as the source of</t>
-  </si>
-  <si>
-    <t>as well as any</t>
-  </si>
-  <si>
-    <t>aside from</t>
-  </si>
-  <si>
-    <t>as</t>
-  </si>
-  <si>
-    <t>at that time</t>
-  </si>
-  <si>
-    <t>at this time</t>
-  </si>
-  <si>
-    <t>attempted</t>
-  </si>
-  <si>
-    <t>attempt</t>
-  </si>
-  <si>
-    <t>aunt's</t>
-  </si>
-  <si>
-    <t>aunt</t>
-  </si>
-  <si>
-    <t>be ruled out for</t>
-  </si>
-  <si>
-    <t>be ruled out</t>
-  </si>
-  <si>
-    <t>be stopped</t>
-  </si>
-  <si>
-    <t>because</t>
-  </si>
-  <si>
-    <t>being ruled out</t>
-  </si>
-  <si>
-    <t>beyond</t>
-  </si>
-  <si>
-    <t>biopsy of</t>
-  </si>
-  <si>
-    <t>borderline</t>
-  </si>
-  <si>
-    <t>brother's</t>
-  </si>
-  <si>
-    <t>brothers</t>
-  </si>
-  <si>
-    <t>brother</t>
-  </si>
-  <si>
-    <t>but</t>
-  </si>
-  <si>
-    <t>##</t>
-  </si>
-  <si>
-    <t>by \w+ family</t>
-  </si>
-  <si>
-    <t>by family</t>
-  </si>
-  <si>
-    <t>by the</t>
-  </si>
-  <si>
-    <t>c w</t>
-  </si>
-  <si>
-    <t>can be ruled out for</t>
-  </si>
-  <si>
-    <t>can be ruled out</t>
-  </si>
-  <si>
-    <t>can rule her out against</t>
-  </si>
-  <si>
-    <t>can rule her out for</t>
-  </si>
-  <si>
-    <t>can rule her out</t>
-  </si>
-  <si>
-    <t>can rule him out against</t>
-  </si>
-  <si>
-    <t>can rule him out for</t>
-  </si>
-  <si>
-    <t>can rule him out</t>
-  </si>
-  <si>
-    <t>can rule out against</t>
-  </si>
-  <si>
-    <t>can rule out for</t>
-  </si>
-  <si>
-    <t>can rule out</t>
-  </si>
-  <si>
-    <t>can rule the patient out</t>
-  </si>
-  <si>
-    <t>can rule the patinet out against</t>
-  </si>
-  <si>
-    <t>can rule the patinet out for</t>
-  </si>
-  <si>
-    <t>#cannot be completely excluded</t>
-  </si>
-  <si>
-    <t>#cannot be excluded</t>
-  </si>
-  <si>
-    <t>#cannot be fully excluded</t>
-  </si>
-  <si>
-    <t>cannot see</t>
-  </si>
-  <si>
-    <t>cannot</t>
-  </si>
-  <si>
-    <t>cause for</t>
-  </si>
-  <si>
-    <t>cause of</t>
-  </si>
-  <si>
-    <t>causes for</t>
-  </si>
-  <si>
-    <t>causes of</t>
-  </si>
-  <si>
-    <t>checked for</t>
-  </si>
-  <si>
-    <t>clear of</t>
-  </si>
-  <si>
-    <t>come back for</t>
-  </si>
-  <si>
-    <t>come back to</t>
-  </si>
-  <si>
-    <t>complains</t>
-  </si>
-  <si>
-    <t>concern for</t>
-  </si>
-  <si>
-    <t>concerned about</t>
-  </si>
-  <si>
-    <t>concerned for</t>
-  </si>
-  <si>
-    <t>concerning for</t>
-  </si>
-  <si>
-    <t>#consistent with</t>
-  </si>
-  <si>
-    <t>could be either</t>
-  </si>
-  <si>
-    <t>could be</t>
-  </si>
-  <si>
-    <t>could be ruled out</t>
-  </si>
-  <si>
-    <t>could be ruled out for</t>
-  </si>
-  <si>
-    <t>currently</t>
-  </si>
-  <si>
-    <t>dad called</t>
-  </si>
-  <si>
-    <t>dad's</t>
-  </si>
-  <si>
-    <t>dad</t>
-  </si>
-  <si>
-    <t>daughter called</t>
-  </si>
-  <si>
-    <t>daughter reported</t>
-  </si>
-  <si>
-    <t>daughter reports</t>
-  </si>
-  <si>
-    <t>daughters</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>decided</t>
-  </si>
-  <si>
-    <t>decides</t>
-  </si>
-  <si>
-    <t>decide</t>
-  </si>
-  <si>
-    <t>declined</t>
-  </si>
-  <si>
-    <t>declines</t>
-  </si>
-  <si>
-    <t>denied active</t>
-  </si>
-  <si>
-    <t>denied any abnormal</t>
-  </si>
-  <si>
-    <t>denied any change in the</t>
-  </si>
-  <si>
-    <t>denied any changes in the</t>
-  </si>
-  <si>
-    <t>denied any current</t>
-  </si>
-  <si>
-    <t>denied any high risk</t>
-  </si>
-  <si>
-    <t>denied any high-risk</t>
-  </si>
-  <si>
-    <t>denied any history of</t>
-  </si>
-  <si>
-    <t>denied any other</t>
-  </si>
-  <si>
-    <t>denied any problems of</t>
-  </si>
-  <si>
-    <t>denied any problems</t>
-  </si>
-  <si>
-    <t>denied any recent</t>
-  </si>
-  <si>
-    <t>denied any significant</t>
-  </si>
-  <si>
-    <t>denied any symptom of</t>
-  </si>
-  <si>
-    <t>denied any symptoms of</t>
-  </si>
-  <si>
-    <t>denied any</t>
-  </si>
-  <si>
-    <t>denied current</t>
-  </si>
-  <si>
-    <t>denied ever</t>
-  </si>
-  <si>
-    <t>denied other symptoms of</t>
-  </si>
-  <si>
-    <t>denied problems with</t>
-  </si>
-  <si>
-    <t>denied symptoms of</t>
-  </si>
-  <si>
-    <t>denied that there was any current</t>
-  </si>
-  <si>
-    <t>denied that there was any history of</t>
-  </si>
-  <si>
-    <t>denied that there was any</t>
-  </si>
-  <si>
-    <t>denied that there was ever history of</t>
-  </si>
-  <si>
-    <t>denied that there was ever</t>
-  </si>
-  <si>
-    <t>denied that there was history of</t>
-  </si>
-  <si>
-    <t>denied that there was problems of</t>
-  </si>
-  <si>
-    <t>denied that there was problems</t>
-  </si>
-  <si>
-    <t>denied that there were any history of</t>
-  </si>
-  <si>
-    <t>denied that there were any</t>
-  </si>
-  <si>
-    <t>denied that there were ever history of</t>
-  </si>
-  <si>
-    <t>denied that there were ever</t>
-  </si>
-  <si>
-    <t>denied that there were history of</t>
-  </si>
-  <si>
-    <t>denied that there were problems of</t>
-  </si>
-  <si>
-    <t>denied that there were problems</t>
-  </si>
-  <si>
-    <t>denied this</t>
-  </si>
-  <si>
-    <t>denied use of other</t>
-  </si>
-  <si>
-    <t>denied use of</t>
-  </si>
-  <si>
-    <t>denied</t>
-  </si>
-  <si>
-    <t>denies active</t>
-  </si>
-  <si>
-    <t>denies any abnormal</t>
-  </si>
-  <si>
-    <t>denies any change in the</t>
-  </si>
-  <si>
-    <t>denies any changes in the</t>
-  </si>
-  <si>
-    <t>denies any current</t>
-  </si>
-  <si>
-    <t>denies any high risk</t>
-  </si>
-  <si>
-    <t>denies any high-risk</t>
-  </si>
-  <si>
-    <t>denies any history of</t>
-  </si>
-  <si>
-    <t>denies any other</t>
-  </si>
-  <si>
-    <t>denies any problems of</t>
-  </si>
-  <si>
-    <t>denies any problems with</t>
-  </si>
-  <si>
-    <t>denies any problems</t>
-  </si>
-  <si>
-    <t>denies any recent</t>
-  </si>
-  <si>
-    <t>denies any significant</t>
-  </si>
-  <si>
-    <t>denies any symptom of</t>
-  </si>
-  <si>
-    <t>denies any symptoms of</t>
-  </si>
-  <si>
-    <t>denies any undue</t>
-  </si>
-  <si>
-    <t>denies any</t>
-  </si>
-  <si>
-    <t>denies current</t>
-  </si>
-  <si>
-    <t>denies ever</t>
-  </si>
-  <si>
-    <t>denies problems with</t>
-  </si>
-  <si>
-    <t>denies significant</t>
-  </si>
-  <si>
-    <t>denies symptoms of</t>
-  </si>
-  <si>
-    <t>denies there was any current</t>
-  </si>
-  <si>
-    <t>denies there was any history of</t>
-  </si>
-  <si>
-    <t>denies there was any recent</t>
-  </si>
-  <si>
-    <t>denies there was any</t>
-  </si>
-  <si>
-    <t>denies there was ever history of</t>
-  </si>
-  <si>
-    <t>denies there was ever</t>
-  </si>
-  <si>
-    <t>denies there was history of</t>
-  </si>
-  <si>
-    <t>denies there was problems of</t>
-  </si>
-  <si>
-    <t>denies there was problems</t>
-  </si>
-  <si>
-    <t>denies there were any history of</t>
-  </si>
-  <si>
-    <t>denies there were any</t>
-  </si>
-  <si>
-    <t>denies there were ever history of</t>
-  </si>
-  <si>
-    <t>denies there were ever</t>
-  </si>
-  <si>
-    <t>denies there were history of</t>
-  </si>
-  <si>
-    <t>denies there were problems of</t>
-  </si>
-  <si>
-    <t>denies there were problems</t>
-  </si>
-  <si>
-    <t>denies this</t>
-  </si>
-  <si>
-    <t>denies true</t>
-  </si>
-  <si>
-    <t>denies use of other</t>
-  </si>
-  <si>
-    <t>denies use of</t>
-  </si>
-  <si>
-    <t>denies</t>
-  </si>
-  <si>
-    <t>denise</t>
-  </si>
-  <si>
-    <t>denying</t>
-  </si>
-  <si>
-    <t>deny</t>
-  </si>
-  <si>
-    <t>did have</t>
-  </si>
-  <si>
-    <t>did not have any episodes of</t>
-  </si>
-  <si>
-    <t>did not have any more episodes of</t>
-  </si>
-  <si>
-    <t>did not have any problems with</t>
-  </si>
-  <si>
-    <t>did not observe a</t>
-  </si>
-  <si>
-    <t>did not rule out</t>
-  </si>
-  <si>
-    <t>did rule her out against</t>
-  </si>
-  <si>
-    <t>did rule her out for</t>
-  </si>
-  <si>
-    <t>did rule her out</t>
-  </si>
-  <si>
-    <t>did rule him out against</t>
-  </si>
-  <si>
-    <t>did rule him out for</t>
-  </si>
-  <si>
-    <t>did rule him out</t>
-  </si>
-  <si>
-    <t>did rule out against</t>
-  </si>
-  <si>
-    <t>did rule out for</t>
-  </si>
-  <si>
-    <t>did rule out</t>
-  </si>
-  <si>
-    <t>did rule the patient out against</t>
-  </si>
-  <si>
-    <t>did rule the patient out for</t>
-  </si>
-  <si>
-    <t>did rule the patient out</t>
-  </si>
-  <si>
-    <t>did show</t>
-  </si>
-  <si>
-    <t>didn't express any</t>
-  </si>
-  <si>
-    <t>didn't expressed any</t>
-  </si>
-  <si>
-    <t>didn't have any problems with</t>
-  </si>
-  <si>
-    <t>didn't report any problems with</t>
-  </si>
-  <si>
-    <t>didn't report any</t>
-  </si>
-  <si>
-    <t>does have</t>
-  </si>
-  <si>
-    <t>differential also includes</t>
-  </si>
-  <si>
-    <t>differential diagnoses also includes</t>
-  </si>
-  <si>
-    <t>differential diagnoses includes</t>
-  </si>
-  <si>
-    <t>differential includes</t>
-  </si>
-  <si>
-    <t>does not appear to have any bizarre</t>
-  </si>
-  <si>
-    <t>does not appear to have any issues of</t>
-  </si>
-  <si>
-    <t>does not appear to have any issues with</t>
-  </si>
-  <si>
-    <t>does not appear to have any</t>
-  </si>
-  <si>
-    <t>does not express</t>
-  </si>
-  <si>
-    <t>does not use</t>
-  </si>
-  <si>
-    <t>does not usually</t>
-  </si>
-  <si>
-    <t>does not</t>
-  </si>
-  <si>
-    <t>doesn't look like</t>
-  </si>
-  <si>
-    <t>doubt</t>
-  </si>
-  <si>
-    <t>due to</t>
-  </si>
-  <si>
-    <t>ecchymoses to</t>
-  </si>
-  <si>
-    <t>ed</t>
-  </si>
-  <si>
-    <t>emergency department</t>
-  </si>
-  <si>
-    <t>etiology for</t>
-  </si>
-  <si>
-    <t>etiology of</t>
-  </si>
-  <si>
-    <t>exacerbation from</t>
-  </si>
-  <si>
-    <t>exam to assess</t>
-  </si>
-  <si>
-    <t>examination assess</t>
-  </si>
-  <si>
-    <t>examination to assess</t>
-  </si>
-  <si>
-    <t>examinations to assess</t>
-  </si>
-  <si>
-    <t>exams to assess</t>
-  </si>
-  <si>
-    <t>except</t>
-  </si>
-  <si>
-    <t>f/h</t>
-  </si>
-  <si>
-    <t>fails to reveal</t>
-  </si>
-  <si>
-    <t>false negative</t>
-  </si>
-  <si>
-    <t>fam hx</t>
-  </si>
-  <si>
-    <t>family found</t>
-  </si>
-  <si>
-    <t>family history</t>
-  </si>
-  <si>
-    <t>family said</t>
-  </si>
-  <si>
-    <t>family stated</t>
-  </si>
-  <si>
-    <t>family told</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>father called</t>
-  </si>
-  <si>
-    <t>father's</t>
-  </si>
-  <si>
-    <t>father</t>
-  </si>
-  <si>
-    <t>fh</t>
-  </si>
-  <si>
-    <t>#final report indication</t>
-  </si>
-  <si>
-    <t>for presumed</t>
-  </si>
-  <si>
-    <t>free air</t>
-  </si>
-  <si>
-    <t>free fluid</t>
-  </si>
-  <si>
-    <t>free of</t>
-  </si>
-  <si>
-    <t>free t</t>
-  </si>
-  <si>
-    <t>free wall</t>
-  </si>
-  <si>
-    <t>free water</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>from</t>
-  </si>
-  <si>
-    <t>given \w+ history</t>
-  </si>
-  <si>
-    <t>given her history</t>
-  </si>
-  <si>
-    <t>given his history</t>
-  </si>
-  <si>
-    <t>given patient s history</t>
-  </si>
-  <si>
-    <t>given that</t>
-  </si>
-  <si>
-    <t>given the fact</t>
-  </si>
-  <si>
-    <t>given the history</t>
-  </si>
-  <si>
-    <t>given the severity of</t>
-  </si>
-  <si>
-    <t>gram negative</t>
-  </si>
-  <si>
-    <t>grandfather's</t>
-  </si>
-  <si>
-    <t>grandfather</t>
-  </si>
-  <si>
-    <t>grandmother's</t>
-  </si>
-  <si>
-    <t>grandmother</t>
-  </si>
-  <si>
-    <t>h o</t>
-  </si>
-  <si>
-    <t>had a negative \w+ for</t>
-  </si>
-  <si>
-    <t>has a negative \w+ for</t>
-  </si>
-  <si>
-    <t>has been negative</t>
-  </si>
-  <si>
-    <t>has been ruled out</t>
-  </si>
-  <si>
-    <t>has not had any problems with</t>
-  </si>
-  <si>
-    <t>has not had any problems</t>
-  </si>
-  <si>
-    <t>has not had any</t>
-  </si>
-  <si>
-    <t>have a negative \w+ for</t>
-  </si>
-  <si>
-    <t>have been ruled out</t>
-  </si>
-  <si>
-    <t>he continued to</t>
-  </si>
-  <si>
-    <t>her old</t>
-  </si>
-  <si>
-    <t>his old</t>
-  </si>
-  <si>
-    <t>history and examination</t>
-  </si>
-  <si>
-    <t>history and physical</t>
-  </si>
-  <si>
-    <t>history and</t>
-  </si>
-  <si>
-    <t>history for</t>
-  </si>
-  <si>
-    <t>history of chief complaint</t>
-  </si>
-  <si>
-    <t>history of present illness</t>
-  </si>
-  <si>
-    <t>history physical</t>
-  </si>
-  <si>
-    <t>history taking</t>
-  </si>
-  <si>
-    <t>#history</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>ho</t>
-  </si>
-  <si>
-    <t>hx</t>
-  </si>
-  <si>
-    <t>if negative</t>
-  </si>
-  <si>
-    <t>if</t>
-  </si>
-  <si>
-    <t>in her</t>
-  </si>
-  <si>
-    <t>in his</t>
-  </si>
-  <si>
-    <t>in the past</t>
-  </si>
-  <si>
-    <t>in the setting of</t>
-  </si>
-  <si>
-    <t>inconsistent with</t>
-  </si>
-  <si>
-    <t>#indication</t>
-  </si>
-  <si>
-    <t>is negative</t>
-  </si>
-  <si>
-    <t>is neg</t>
-  </si>
-  <si>
-    <t>is no longer</t>
-  </si>
-  <si>
-    <t>is not</t>
-  </si>
-  <si>
-    <t>is ruled out</t>
-  </si>
-  <si>
-    <t>is stopped</t>
-  </si>
-  <si>
-    <t>is to be ruled out for</t>
-  </si>
-  <si>
-    <t>is to be ruled out</t>
-  </si>
-  <si>
-    <t>isn't</t>
-  </si>
-  <si>
-    <t>lack of</t>
-  </si>
-  <si>
-    <t>lacked</t>
-  </si>
-  <si>
-    <t>last &gt; 0 month ago</t>
-  </si>
-  <si>
-    <t>last &gt; 0 months ago</t>
-  </si>
-  <si>
-    <t>last &gt; 0 year ago</t>
-  </si>
-  <si>
-    <t>last &gt; 0 years ago</t>
-  </si>
-  <si>
-    <t>last &gt; 0 yrs ago</t>
-  </si>
-  <si>
-    <t>last &gt; 1 week ago</t>
-  </si>
-  <si>
-    <t>last &gt; 1 weeks ago</t>
-  </si>
-  <si>
-    <t>last april</t>
-  </si>
-  <si>
-    <t>last august</t>
-  </si>
-  <si>
-    <t>last december</t>
-  </si>
-  <si>
-    <t>last fall</t>
-  </si>
-  <si>
-    <t>last february</t>
-  </si>
-  <si>
-    <t>last january</t>
-  </si>
-  <si>
-    <t>last july</t>
-  </si>
-  <si>
-    <t>last june</t>
-  </si>
-  <si>
-    <t>last march</t>
-  </si>
-  <si>
-    <t>last may</t>
-  </si>
-  <si>
-    <t>last november</t>
-  </si>
-  <si>
-    <t>last october</t>
-  </si>
-  <si>
-    <t>last september</t>
-  </si>
-  <si>
-    <t>last spring</t>
-  </si>
-  <si>
-    <t>last summer</t>
-  </si>
-  <si>
-    <t>last winter</t>
-  </si>
-  <si>
-    <t>likely component of</t>
-  </si>
-  <si>
-    <t>likely contributors to</t>
-  </si>
-  <si>
-    <t>likely from</t>
-  </si>
-  <si>
-    <t>likely in setting of</t>
-  </si>
-  <si>
-    <t>likely reflecting</t>
-  </si>
-  <si>
-    <t>likely</t>
-  </si>
-  <si>
-    <t>look for any</t>
-  </si>
-  <si>
-    <t>look for</t>
-  </si>
-  <si>
-    <t>markedly</t>
-  </si>
-  <si>
-    <t>may be \w+ underestimated</t>
-  </si>
-  <si>
-    <t>may be contributing</t>
-  </si>
-  <si>
-    <t>may be due to</t>
-  </si>
-  <si>
-    <t>may be related to</t>
-  </si>
-  <si>
-    <t>may be ruled out for</t>
-  </si>
-  <si>
-    <t>may be ruled out</t>
-  </si>
-  <si>
-    <t>may be underestimated</t>
-  </si>
-  <si>
-    <t>may be unmasking</t>
-  </si>
-  <si>
-    <t>may be</t>
-  </si>
-  <si>
-    <t>may have been preceded by</t>
-  </si>
-  <si>
-    <t>may have</t>
-  </si>
-  <si>
-    <t>may represent</t>
-  </si>
-  <si>
-    <t>might be ruled out for</t>
-  </si>
-  <si>
-    <t>might be ruled out</t>
-  </si>
-  <si>
-    <t>might be</t>
-  </si>
-  <si>
-    <t>mildly</t>
-  </si>
-  <si>
-    <t>mild</t>
-  </si>
-  <si>
-    <t>mom called</t>
-  </si>
-  <si>
-    <t>mom's</t>
-  </si>
-  <si>
-    <t>mom</t>
-  </si>
-  <si>
-    <t>monitor \w+ for</t>
-  </si>
-  <si>
-    <t>monitor the \w+ for</t>
-  </si>
-  <si>
-    <t>mother called</t>
-  </si>
-  <si>
-    <t>mother's</t>
-  </si>
-  <si>
-    <t>mother</t>
-  </si>
-  <si>
-    <t>must be ruled out for</t>
-  </si>
-  <si>
-    <t>must be ruled out</t>
-  </si>
-  <si>
-    <t>n o</t>
-  </si>
-  <si>
-    <t>neg for</t>
-  </si>
-  <si>
-    <t>neg.</t>
-  </si>
-  <si>
-    <t>negative for</t>
-  </si>
-  <si>
-    <t>neg</t>
-  </si>
-  <si>
-    <t>neighbor called</t>
-  </si>
-  <si>
-    <t>neighbors called</t>
-  </si>
-  <si>
-    <t>neighbors</t>
-  </si>
-  <si>
-    <t>neighbor</t>
-  </si>
-  <si>
-    <t>neighbour called</t>
-  </si>
-  <si>
-    <t>neighbours called</t>
-  </si>
-  <si>
-    <t>neighbours</t>
-  </si>
-  <si>
-    <t>neighbour</t>
-  </si>
-  <si>
-    <t>never any</t>
-  </si>
-  <si>
-    <t>never developed</t>
-  </si>
-  <si>
-    <t>never had</t>
-  </si>
-  <si>
-    <t>nevertheless</t>
-  </si>
-  <si>
-    <t>no \w+ evid of</t>
-  </si>
-  <si>
-    <t>no \w+ evid to suggest</t>
-  </si>
-  <si>
-    <t>no \w+ evid to</t>
-  </si>
-  <si>
-    <t>no \w+ evidence of</t>
-  </si>
-  <si>
-    <t>no \w+ evidence to suggest</t>
-  </si>
-  <si>
-    <t>no \w+ evidence to</t>
-  </si>
-  <si>
-    <t>no \w+ evidence</t>
-  </si>
-  <si>
-    <t>no \w+ evid</t>
-  </si>
-  <si>
-    <t>no \w+ was given</t>
-  </si>
-  <si>
-    <t>no abnormal</t>
-  </si>
-  <si>
-    <t>no acute</t>
-  </si>
-  <si>
-    <t>no additional significant</t>
-  </si>
-  <si>
-    <t>no apparent</t>
-  </si>
-  <si>
-    <t>no cause of</t>
-  </si>
-  <si>
-    <t>no change</t>
-  </si>
-  <si>
-    <t>no complaints of</t>
-  </si>
-  <si>
-    <t>no current</t>
-  </si>
-  <si>
-    <t>no definite change</t>
-  </si>
-  <si>
-    <t>no e/o</t>
-  </si>
-  <si>
-    <t>no e o</t>
-  </si>
-  <si>
-    <t>no evidence of</t>
-  </si>
-  <si>
-    <t>no evidence to suggest</t>
-  </si>
-  <si>
-    <t>no evidence</t>
-  </si>
-  <si>
-    <t>no findings of</t>
-  </si>
-  <si>
-    <t>no findings to indicate</t>
-  </si>
-  <si>
-    <t>no findings to suggest</t>
-  </si>
-  <si>
-    <t>no h o</t>
-  </si>
-  <si>
-    <t>no history of</t>
-  </si>
-  <si>
-    <t>no hx of</t>
-  </si>
-  <si>
-    <t>no increase</t>
-  </si>
-  <si>
-    <t>no indication of</t>
-  </si>
-  <si>
-    <t>no indications of</t>
-  </si>
-  <si>
-    <t>no interval change</t>
-  </si>
-  <si>
-    <t>no known history of</t>
-  </si>
-  <si>
-    <t>no known hx of</t>
-  </si>
-  <si>
-    <t>no longer present</t>
-  </si>
-  <si>
-    <t>no longer</t>
-  </si>
-  <si>
-    <t>no major</t>
-  </si>
-  <si>
-    <t>no mammographic evidence of</t>
-  </si>
-  <si>
-    <t>no mention of</t>
-  </si>
-  <si>
-    <t>no new evidence</t>
-  </si>
-  <si>
-    <t>no new</t>
-  </si>
-  <si>
-    <t>no other evidence</t>
-  </si>
-  <si>
-    <t>no other symptoms of</t>
-  </si>
-  <si>
-    <t>no other</t>
-  </si>
-  <si>
-    <t>no problems with '</t>
-  </si>
-  <si>
-    <t>no radiographic evidence of</t>
-  </si>
-  <si>
-    <t>no recurrent</t>
-  </si>
-  <si>
-    <t>no reported mention</t>
-  </si>
-  <si>
-    <t>no reported</t>
-  </si>
-  <si>
-    <t>no residual</t>
-  </si>
-  <si>
-    <t>no sign of</t>
-  </si>
-  <si>
-    <t>no significant change</t>
-  </si>
-  <si>
-    <t>no significant interval change</t>
-  </si>
-  <si>
-    <t>no significant</t>
-  </si>
-  <si>
-    <t>no signs of</t>
-  </si>
-  <si>
-    <t>no signs or symptoms of</t>
-  </si>
-  <si>
-    <t>no sign</t>
-  </si>
-  <si>
-    <t>no suggestion of</t>
-  </si>
-  <si>
-    <t>no suspicious change</t>
-  </si>
-  <si>
-    <t>no suspicious</t>
-  </si>
-  <si>
-    <t>no sxs of</t>
-  </si>
-  <si>
-    <t>no visable</t>
-  </si>
-  <si>
-    <t>non diagnostic</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>nor all</t>
-  </si>
-  <si>
-    <t>nor any</t>
-  </si>
-  <si>
-    <t>nor</t>
-  </si>
-  <si>
-    <t>not a current</t>
-  </si>
-  <si>
-    <t>not appear</t>
-  </si>
-  <si>
-    <t>not appreciate</t>
-  </si>
-  <si>
-    <t>not associated with</t>
-  </si>
-  <si>
-    <t>not attempted given</t>
-  </si>
-  <si>
-    <t>not been ruled out</t>
-  </si>
-  <si>
-    <t>not cause</t>
-  </si>
-  <si>
-    <t>not certain if</t>
-  </si>
-  <si>
-    <t>not certain whether</t>
-  </si>
-  <si>
-    <t>not complain of</t>
-  </si>
-  <si>
-    <t>not current</t>
-  </si>
-  <si>
-    <t>not demonstrate</t>
-  </si>
-  <si>
-    <t>not drain</t>
-  </si>
-  <si>
-    <t>not exhibit</t>
-  </si>
-  <si>
-    <t>not extend</t>
-  </si>
-  <si>
-    <t>not feel</t>
-  </si>
-  <si>
-    <t>not had</t>
-  </si>
-  <si>
-    <t>not have evidence of</t>
-  </si>
-  <si>
-    <t>not have</t>
-  </si>
-  <si>
-    <t>not in acute</t>
-  </si>
-  <si>
-    <t>not interested</t>
-  </si>
-  <si>
-    <t>not in</t>
-  </si>
-  <si>
-    <t>not know of</t>
-  </si>
-  <si>
-    <t>not known to have</t>
-  </si>
-  <si>
-    <t>not necessarily</t>
-  </si>
-  <si>
-    <t>not only</t>
-  </si>
-  <si>
-    <t>not on</t>
-  </si>
-  <si>
-    <t>not reveal</t>
-  </si>
-  <si>
-    <t>not ruled out</t>
-  </si>
-  <si>
-    <t>not see</t>
-  </si>
-  <si>
-    <t>not solve</t>
-  </si>
-  <si>
-    <t>not to be</t>
-  </si>
-  <si>
-    <t>noted</t>
-  </si>
-  <si>
-    <t>not</t>
-  </si>
-  <si>
-    <t>now resolved</t>
-  </si>
-  <si>
-    <t>#-Possibility of current pregnancy   yes, using condoms  -Currently using IUD for contraception   no</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>origin for</t>
-  </si>
-  <si>
-    <t>origin of</t>
-  </si>
-  <si>
-    <t>origins for</t>
-  </si>
-  <si>
-    <t>origins of</t>
-  </si>
-  <si>
-    <t>other possibilities of</t>
-  </si>
-  <si>
-    <t>ought to be ruled out for</t>
-  </si>
-  <si>
-    <t>ought to be ruled out</t>
-  </si>
-  <si>
-    <t>past history</t>
-  </si>
-  <si>
-    <t>past medical history</t>
-  </si>
-  <si>
-    <t>patient continued to</t>
-  </si>
-  <si>
-    <t>patient was not</t>
-  </si>
-  <si>
-    <t>patient's</t>
-  </si>
-  <si>
-    <t>poor history</t>
-  </si>
-  <si>
-    <t>possibility of</t>
-  </si>
-  <si>
-    <t>possible</t>
-  </si>
-  <si>
-    <t>possibly</t>
-  </si>
-  <si>
-    <t>poss</t>
-  </si>
-  <si>
-    <t>presenting</t>
-  </si>
-  <si>
-    <t>presents</t>
-  </si>
-  <si>
-    <t>presumably</t>
-  </si>
-  <si>
-    <t>presumed to</t>
-  </si>
-  <si>
-    <t>prior to</t>
-  </si>
-  <si>
-    <t>prn</t>
-  </si>
-  <si>
-    <t>probable</t>
-  </si>
-  <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>prophylaxis</t>
-  </si>
-  <si>
-    <t>pt</t>
-  </si>
-  <si>
-    <t>question was</t>
-  </si>
-  <si>
-    <t>questioned</t>
-  </si>
-  <si>
-    <t>r o</t>
-  </si>
-  <si>
-    <t>rather than</t>
-  </si>
-  <si>
-    <t>reason for</t>
-  </si>
-  <si>
-    <t>reason of</t>
-  </si>
-  <si>
-    <t>reasons for</t>
-  </si>
-  <si>
-    <t>reasons of</t>
-  </si>
-  <si>
-    <t>reported</t>
-  </si>
-  <si>
-    <t>reports</t>
-  </si>
-  <si>
-    <t>resolved</t>
-  </si>
-  <si>
-    <t>return</t>
-  </si>
-  <si>
-    <t>risk of</t>
-  </si>
-  <si>
-    <t>roommate called</t>
-  </si>
-  <si>
-    <t>roommates called</t>
-  </si>
-  <si>
-    <t>roommates</t>
-  </si>
-  <si>
-    <t>roommate</t>
-  </si>
-  <si>
-    <t>ro</t>
-  </si>
-  <si>
-    <t>rule her out for</t>
-  </si>
-  <si>
-    <t>rule her out</t>
-  </si>
-  <si>
-    <t>rule him out for</t>
-  </si>
-  <si>
-    <t>rule him out</t>
-  </si>
-  <si>
-    <t>rule out for</t>
-  </si>
-  <si>
-    <t>rule out</t>
-  </si>
-  <si>
-    <t>rule the patient out</t>
-  </si>
-  <si>
-    <t>rule the patinet out for</t>
-  </si>
-  <si>
-    <t>ruled her out against</t>
-  </si>
-  <si>
-    <t>ruled her out for</t>
-  </si>
-  <si>
-    <t>ruled her out</t>
-  </si>
-  <si>
-    <t>ruled him out against</t>
-  </si>
-  <si>
-    <t>ruled him out for</t>
-  </si>
-  <si>
-    <t>ruled him out</t>
-  </si>
-  <si>
-    <t>ruled out against</t>
-  </si>
-  <si>
-    <t>ruled out for</t>
-  </si>
-  <si>
-    <t>ruled out</t>
-  </si>
-  <si>
-    <t>ruled the patient out against</t>
-  </si>
-  <si>
-    <t>ruled the patient out for</t>
-  </si>
-  <si>
-    <t>ruled the patient out</t>
-  </si>
-  <si>
-    <t>rules her out for</t>
-  </si>
-  <si>
-    <t>rules her out</t>
-  </si>
-  <si>
-    <t>rules him out for</t>
-  </si>
-  <si>
-    <t>rules him out</t>
-  </si>
-  <si>
-    <t>rules out for</t>
-  </si>
-  <si>
-    <t>rules out</t>
-  </si>
-  <si>
-    <t>rules the patient out for</t>
-  </si>
-  <si>
-    <t>rules the patient out</t>
-  </si>
-  <si>
-    <t>s p</t>
-  </si>
-  <si>
-    <t>secondary to</t>
-  </si>
-  <si>
-    <t>secondary</t>
-  </si>
-  <si>
-    <t>she continued to</t>
-  </si>
-  <si>
-    <t>should be ruled out for</t>
-  </si>
-  <si>
-    <t>should be ruled out</t>
-  </si>
-  <si>
-    <t>should he</t>
-  </si>
-  <si>
-    <t>should she</t>
-  </si>
-  <si>
-    <t>should the patient</t>
-  </si>
-  <si>
-    <t>should there</t>
-  </si>
-  <si>
-    <t>show a question of</t>
-  </si>
-  <si>
-    <t>shown a question of</t>
-  </si>
-  <si>
-    <t>since april</t>
-  </si>
-  <si>
-    <t>since august</t>
-  </si>
-  <si>
-    <t>since december</t>
-  </si>
-  <si>
-    <t>since fall</t>
-  </si>
-  <si>
-    <t>since february</t>
-  </si>
-  <si>
-    <t>since january</t>
-  </si>
-  <si>
-    <t>since july</t>
-  </si>
-  <si>
-    <t>since june</t>
-  </si>
-  <si>
-    <t>since march</t>
-  </si>
-  <si>
-    <t>since may</t>
-  </si>
-  <si>
-    <t>since november</t>
-  </si>
-  <si>
-    <t>since october</t>
-  </si>
-  <si>
-    <t>since september</t>
-  </si>
-  <si>
-    <t>since spring</t>
-  </si>
-  <si>
-    <t>since summer</t>
-  </si>
-  <si>
-    <t>since winter</t>
-  </si>
-  <si>
-    <t>sister's</t>
-  </si>
-  <si>
-    <t>sisters</t>
-  </si>
-  <si>
-    <t>sister</t>
-  </si>
-  <si>
-    <t>sister called</t>
-  </si>
-  <si>
-    <t>sister reported</t>
-  </si>
-  <si>
-    <t>sister reports</t>
-  </si>
-  <si>
-    <t>social history</t>
-  </si>
-  <si>
-    <t>son called</t>
-  </si>
-  <si>
-    <t>son reported</t>
-  </si>
-  <si>
-    <t>son reports</t>
-  </si>
-  <si>
-    <t>sons</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>source for</t>
-  </si>
-  <si>
-    <t>source of</t>
-  </si>
-  <si>
-    <t>sources for</t>
-  </si>
-  <si>
-    <t>sources of</t>
-  </si>
-  <si>
-    <t>speaking with family</t>
-  </si>
-  <si>
-    <t>spoke with family</t>
-  </si>
-  <si>
-    <t>states</t>
-  </si>
-  <si>
-    <t>status post</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>stopped taking</t>
-  </si>
-  <si>
-    <t>studies to assess</t>
-  </si>
-  <si>
-    <t>study to assess</t>
-  </si>
-  <si>
-    <t>sudden onset of</t>
-  </si>
-  <si>
-    <t>sufficient to rule her out against</t>
-  </si>
-  <si>
-    <t>sufficient to rule her out for</t>
-  </si>
-  <si>
-    <t>sufficient to rule her out</t>
-  </si>
-  <si>
-    <t>sufficient to rule him out against</t>
-  </si>
-  <si>
-    <t>sufficient to rule him out for</t>
-  </si>
-  <si>
-    <t>sufficient to rule him out</t>
-  </si>
-  <si>
-    <t>sufficient to rule out against</t>
-  </si>
-  <si>
-    <t>sufficient to rule out for</t>
-  </si>
-  <si>
-    <t>sufficient to rule out</t>
-  </si>
-  <si>
-    <t>sufficient to rule the patient out against</t>
-  </si>
-  <si>
-    <t>sufficient to rule the patient out for</t>
-  </si>
-  <si>
-    <t>sufficient to rule the patient out</t>
-  </si>
-  <si>
-    <t>suggestive of</t>
-  </si>
-  <si>
-    <t>suggest</t>
-  </si>
-  <si>
-    <t>suspected</t>
-  </si>
-  <si>
-    <t>suspicion for</t>
-  </si>
-  <si>
-    <t>suspicious for</t>
-  </si>
-  <si>
-    <t>talked with family</t>
-  </si>
-  <si>
-    <t>talking with family</t>
-  </si>
-  <si>
-    <t>the presumed</t>
-  </si>
-  <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>to evaluate for any</t>
-  </si>
-  <si>
-    <t>to exclude</t>
-  </si>
-  <si>
-    <t>to prevent</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>treatment of</t>
-  </si>
-  <si>
-    <t>trigger event for</t>
-  </si>
-  <si>
-    <t>uncle's</t>
-  </si>
-  <si>
-    <t>unclear dose</t>
-  </si>
-  <si>
-    <t>unclear</t>
-  </si>
-  <si>
-    <t>uncle</t>
-  </si>
-  <si>
-    <t>unlikely</t>
-  </si>
-  <si>
-    <t>unremarkable for</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>w/o evidence of</t>
-  </si>
-  <si>
-    <t>w/o evidence</t>
-  </si>
-  <si>
-    <t>w/o</t>
-  </si>
-  <si>
-    <t>w o evidence of</t>
-  </si>
-  <si>
-    <t>w o evidence</t>
-  </si>
-  <si>
-    <t>w o</t>
-  </si>
-  <si>
-    <t>wants to</t>
-  </si>
-  <si>
-    <t>was found negative</t>
-  </si>
-  <si>
-    <t>was found</t>
-  </si>
-  <si>
-    <t>was initially suspected</t>
-  </si>
-  <si>
-    <t>was instructed</t>
-  </si>
-  <si>
-    <t>was negative</t>
-  </si>
-  <si>
-    <t>was noted to be negative</t>
-  </si>
-  <si>
-    <t>was not</t>
-  </si>
-  <si>
-    <t>was ruled out</t>
-  </si>
-  <si>
-    <t>was stopped by</t>
-  </si>
-  <si>
-    <t>was stopped due to</t>
-  </si>
-  <si>
-    <t>was stopped</t>
-  </si>
-  <si>
-    <t>was suspected</t>
-  </si>
-  <si>
-    <t>wasn't</t>
-  </si>
-  <si>
-    <t>were instructed</t>
-  </si>
-  <si>
-    <t>were stopped</t>
-  </si>
-  <si>
-    <t>were totally</t>
-  </si>
-  <si>
-    <t>what must be ruled out is</t>
-  </si>
-  <si>
-    <t>whether or not</t>
-  </si>
-  <si>
-    <t>which</t>
-  </si>
-  <si>
-    <t>while</t>
-  </si>
-  <si>
-    <t>who are not present</t>
-  </si>
-  <si>
-    <t>will be ruled out for</t>
-  </si>
-  <si>
-    <t>will be ruled out</t>
-  </si>
-  <si>
-    <t>with \w+ dad</t>
-  </si>
-  <si>
-    <t>with \w+ daughter</t>
-  </si>
-  <si>
-    <t>with \w+ father</t>
-  </si>
-  <si>
-    <t>with \w+ mom</t>
-  </si>
-  <si>
-    <t>with \w+ mother</t>
-  </si>
-  <si>
-    <t>with \w+ son</t>
-  </si>
-  <si>
-    <t>with a question of</t>
-  </si>
-  <si>
-    <t>with no</t>
-  </si>
-  <si>
-    <t>without \w+ evidence</t>
-  </si>
-  <si>
-    <t>without abnormal</t>
-  </si>
-  <si>
-    <t>without active</t>
-  </si>
-  <si>
-    <t>without additional</t>
-  </si>
-  <si>
-    <t>without any evidence of</t>
-  </si>
-  <si>
-    <t>without any</t>
-  </si>
-  <si>
-    <t>without an</t>
-  </si>
-  <si>
-    <t>without apparent</t>
-  </si>
-  <si>
-    <t>without audible</t>
-  </si>
-  <si>
-    <t>without a</t>
-  </si>
-  <si>
-    <t>without becoming</t>
-  </si>
-  <si>
-    <t>without being</t>
-  </si>
-  <si>
-    <t>without causing</t>
-  </si>
-  <si>
-    <t>without difficulties</t>
-  </si>
-  <si>
-    <t>without difficulty</t>
-  </si>
-  <si>
-    <t>without diff</t>
-  </si>
-  <si>
-    <t>without evidence of</t>
-  </si>
-  <si>
-    <t>without evidence</t>
-  </si>
-  <si>
-    <t>without experiencing</t>
-  </si>
-  <si>
-    <t>without further</t>
-  </si>
-  <si>
-    <t>without gross</t>
-  </si>
-  <si>
-    <t>without having</t>
-  </si>
-  <si>
-    <t>without increased</t>
-  </si>
-  <si>
-    <t>without indication of</t>
-  </si>
-  <si>
-    <t>without left</t>
-  </si>
-  <si>
-    <t>without major</t>
-  </si>
-  <si>
-    <t>without maximally</t>
-  </si>
-  <si>
-    <t>without mention of</t>
-  </si>
-  <si>
-    <t>without much</t>
-  </si>
-  <si>
-    <t>without new</t>
-  </si>
-  <si>
-    <t>without noted</t>
-  </si>
-  <si>
-    <t>without noticed</t>
-  </si>
-  <si>
-    <t>without not</t>
-  </si>
-  <si>
-    <t>without no</t>
-  </si>
-  <si>
-    <t>without obvious</t>
-  </si>
-  <si>
-    <t>without other</t>
-  </si>
-  <si>
-    <t>without painful</t>
-  </si>
-  <si>
-    <t>without paraspinal</t>
-  </si>
-  <si>
-    <t>without peripheral</t>
-  </si>
-  <si>
-    <t>without purulent</t>
-  </si>
-  <si>
-    <t>without reported</t>
-  </si>
-  <si>
-    <t>without right</t>
-  </si>
-  <si>
-    <t>without sign of</t>
-  </si>
-  <si>
-    <t>without significant</t>
-  </si>
-  <si>
-    <t>without signs of</t>
-  </si>
-  <si>
-    <t>without some</t>
-  </si>
-  <si>
-    <t>without success</t>
-  </si>
-  <si>
-    <t>without the</t>
-  </si>
-  <si>
-    <t>without upward</t>
-  </si>
-  <si>
-    <t>without using</t>
-  </si>
-  <si>
-    <t>without visible</t>
-  </si>
-  <si>
-    <t>without vital</t>
-  </si>
-  <si>
-    <t>without which</t>
-  </si>
-  <si>
-    <t>without</t>
-  </si>
-  <si>
-    <t>worried about</t>
-  </si>
-  <si>
-    <t>worrisome for</t>
-  </si>
-  <si>
-    <t>yet</t>
-  </si>
-  <si>
-    <t>given</t>
-  </si>
-  <si>
-    <t>with resolution of</t>
-  </si>
-  <si>
-    <t>call</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>## if tokenize include punctuations</t>
-  </si>
-  <si>
-    <t>w / o evidence of</t>
-  </si>
-  <si>
-    <t>w / o evidence</t>
-  </si>
-  <si>
-    <t>w / o</t>
-  </si>
-  <si>
-    <t>f / h</t>
-  </si>
-  <si>
-    <t>h / o</t>
-  </si>
-  <si>
-    <t>no e / o</t>
-  </si>
-  <si>
-    <t>no h / o</t>
-  </si>
-  <si>
-    <t>r / o</t>
-  </si>
-  <si>
-    <t>&gt; 13 - day of</t>
-  </si>
-  <si>
-    <t>&gt; 13 - days of</t>
-  </si>
-  <si>
-    <t>&gt; 0 - month of</t>
-  </si>
-  <si>
-    <t>&gt; 0 - months of</t>
-  </si>
-  <si>
-    <t>&gt; 0 - year of</t>
-  </si>
-  <si>
-    <t>&gt; 0 - years of</t>
-  </si>
-  <si>
-    <t>dont</t>
-  </si>
-  <si>
-    <t>don t</t>
-  </si>
-  <si>
-    <t>high risk for</t>
-  </si>
-  <si>
-    <t>at risk for</t>
-  </si>
-  <si>
-    <t>don ' t</t>
-  </si>
-  <si>
-    <t>monitor for</t>
-  </si>
-  <si>
-    <t>monitored for</t>
-  </si>
-  <si>
-    <t>low probability</t>
-  </si>
-  <si>
-    <t>high risk of</t>
-  </si>
-  <si>
-    <t>at risk of</t>
-  </si>
-  <si>
-    <t>protocol</t>
-  </si>
-  <si>
-    <t>panel</t>
-  </si>
-  <si>
-    <t>evaluation for</t>
-  </si>
-  <si>
-    <t>evaluation of</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>vs</t>
-  </si>
-  <si>
-    <t>eval for</t>
-  </si>
-  <si>
-    <t>eval of</t>
-  </si>
-  <si>
-    <t>assess for</t>
-  </si>
-  <si>
-    <t>assess of</t>
-  </si>
-  <si>
-    <t>check for</t>
-  </si>
-  <si>
-    <t>now</t>
-  </si>
-  <si>
-    <t>evaluate for</t>
-  </si>
-  <si>
-    <t>evalaute for</t>
-  </si>
-  <si>
-    <t>history of</t>
-  </si>
-  <si>
-    <t>#IUD removed</t>
-  </si>
-  <si>
-    <t>removed</t>
-  </si>
-  <si>
-    <t>removal</t>
-  </si>
-  <si>
-    <t>#at which time I removed a Mirena IUD that had been placed</t>
-  </si>
-  <si>
-    <t>out</t>
-  </si>
-  <si>
-    <t>counseled</t>
-  </si>
-  <si>
-    <t>counsel</t>
-  </si>
-  <si>
-    <t>consider</t>
-  </si>
-  <si>
-    <t>considers</t>
-  </si>
-  <si>
-    <t>considering</t>
-  </si>
-  <si>
-    <t>considered</t>
-  </si>
-  <si>
-    <t>desire</t>
-  </si>
-  <si>
-    <t>desires</t>
-  </si>
-  <si>
-    <t>desired</t>
-  </si>
-  <si>
-    <t>would like</t>
-  </si>
-  <si>
-    <t>returns for</t>
-  </si>
-  <si>
-    <t>cannot feel</t>
-  </si>
-  <si>
-    <t>couldn't feel</t>
-  </si>
-  <si>
-    <t>can't feel</t>
-  </si>
-  <si>
-    <t>evaluation</t>
-  </si>
-  <si>
-    <t>evaluated</t>
-  </si>
-  <si>
-    <t>evaluate</t>
-  </si>
-  <si>
-    <t>#Signed tubal consent, implanon info given.</t>
-  </si>
-  <si>
-    <t>info given</t>
-  </si>
-  <si>
-    <t>info was given</t>
-  </si>
-  <si>
-    <t>information given</t>
-  </si>
-  <si>
-    <t>information was given</t>
-  </si>
-  <si>
-    <t>insertion of</t>
-  </si>
-  <si>
-    <t>interested in</t>
-  </si>
-  <si>
-    <t># In prep for copper IUD</t>
-  </si>
-  <si>
-    <t>prep for</t>
-  </si>
-  <si>
-    <t>#Educated patient on various contraception devices including OCPs  Nuvaring  Implanon  Depo  Mirena and ParaGard  OCP Nuvari</t>
-  </si>
-  <si>
-    <t>educated patient on</t>
-  </si>
-  <si>
-    <t>educate patient on</t>
-  </si>
-  <si>
-    <t>educated patient about</t>
-  </si>
-  <si>
-    <t>educate patient about</t>
-  </si>
-  <si>
-    <t>educated patient regarding</t>
-  </si>
-  <si>
-    <t>educate patient regarding</t>
-  </si>
-  <si>
-    <t>#Patient demonstrates understanding of these risks and choose to schedule the copper IUD  Aptima pending</t>
-  </si>
-  <si>
-    <t>schedule</t>
-  </si>
-  <si>
-    <t>#Assessment/Plan: 1. IUD consultation</t>
-  </si>
-  <si>
-    <t>consultation</t>
-  </si>
-  <si>
-    <t>consult</t>
-  </si>
-  <si>
-    <t>consulted</t>
-  </si>
-  <si>
-    <t>#We discussed IUD contraception at length and</t>
-  </si>
-  <si>
-    <t>discussed</t>
-  </si>
-  <si>
-    <t>discuss</t>
-  </si>
-  <si>
-    <t>#Unintended pregnancy was waiting for IUD insertion</t>
-  </si>
-  <si>
-    <t>waiting for</t>
-  </si>
-  <si>
-    <t>wait for</t>
-  </si>
-  <si>
-    <t>#Failed attempt at Mirena IUD insertion 8 09 due to stenotic cervix</t>
-  </si>
-  <si>
-    <t>failed</t>
-  </si>
-  <si>
-    <t>#Offered her IUD, or depo shot</t>
-  </si>
-  <si>
-    <t>offered</t>
-  </si>
-  <si>
-    <t>offer</t>
-  </si>
-  <si>
-    <t>#Possibility of current pregnancy   yes  using condoms   Currently using IUD for contraception   no</t>
-  </si>
-  <si>
-    <t>#Looking for contraception plan asIUDROS    Chest pain  no  Difficulty breathing  no  Fever  no  Leg pain or swelling</t>
-  </si>
-  <si>
-    <t>looking for</t>
-  </si>
-  <si>
-    <t>#She chose to follow up with Dr  Shutts Karjola for a postpartum tubal ligation versus IUD insertion</t>
-  </si>
-  <si>
-    <t>versus</t>
-  </si>
-  <si>
-    <t>vs.</t>
-  </si>
-  <si>
-    <t>#In addition  the patient was educated about the need for birth control while on lithium  and she agreed to see an OB GYN or primary care physician to have anotherIUDplaced</t>
-  </si>
-  <si>
-    <t>agreed</t>
-  </si>
-  <si>
-    <t>to have</t>
-  </si>
-  <si>
-    <t>#The patient has chosen to haveIUDas postpartum contraception and would like to have a Depo Provera shot in the interim</t>
-  </si>
-  <si>
-    <t>chosen</t>
-  </si>
-  <si>
-    <t>choose</t>
-  </si>
-  <si>
-    <t>#2  Tylenol 325 500mg by mouth as needed   3IUDPlacement prn birth control   4  Celebrex 200mg by mouth once daily x 1 week</t>
-  </si>
-  <si>
-    <t>#Duration of Warfarin Therapy: Indefinite while on IUD with yearly assessments - per Dr. </t>
-  </si>
-  <si>
-    <t>indefinite</t>
-  </si>
-  <si>
-    <t>#Informed her that since she has already tried the Implanon and Provera  that we should try a continuous BC or aMirenato stabilize her cycle</t>
-  </si>
-  <si>
-    <t>should try</t>
-  </si>
-  <si>
-    <t>#Pt requests a 10 year contraception.  Informed pt re: Paragard at South Main. Need to abstain from sex until insertion, and wait 8 weeks PP. </t>
-  </si>
-  <si>
-    <t>informed</t>
-  </si>
-  <si>
-    <t>until</t>
-  </si>
-  <si>
-    <t>#Reviewed 3rd tri warning sx. Plans IUD for BCM.  RTC 2 weeks.</t>
-  </si>
-  <si>
-    <t>plans</t>
-  </si>
-  <si>
-    <t>planned</t>
-  </si>
-  <si>
-    <t>planning</t>
-  </si>
-  <si>
-    <t># Given information on both endometrial ablation andMirenaas possible treatments to dysmenorrhea depending on results of ultrasound  </t>
-  </si>
-  <si>
-    <t>given information on</t>
-  </si>
-  <si>
-    <t>given information about</t>
-  </si>
-  <si>
-    <t>give information on</t>
-  </si>
-  <si>
-    <t>give information about</t>
-  </si>
-  <si>
-    <t>#Date contraception stopped: 09/04/10  Type of contraception: mirena iud </t>
-  </si>
-  <si>
-    <t>contraception stopped</t>
-  </si>
-  <si>
-    <t>#Also reviewed with pt LARC options includingMirena</t>
-  </si>
-  <si>
-    <t>#Precautions reviewed   RTC 4 wk for pap IUD</t>
-  </si>
-  <si>
-    <t>reviewed</t>
-  </si>
-  <si>
-    <t>#Mirena IUD mechanisms of actions, side effects and placement reviewed, pt to do GC/CT at next visit  5.</t>
-  </si>
-  <si>
-    <t># Other options including implanon IUD vaginal ring  and depo provera discussed but patient declines</t>
-  </si>
-  <si>
-    <t>options including</t>
-  </si>
-  <si>
-    <t># Uncomfortable with idea of IUD</t>
-  </si>
-  <si>
-    <t>idea of</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6355" uniqueCount="1226">
+  <si>
+    <t xml:space="preserve">#   ******************************************************************************</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#   * Copyright  2017  Department of Biomedical Informatics, University of Utah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#   * &lt;p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#   * Licensed under the Apache License, Version 2.0 (the "License");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#   * you may not use this file except in compliance with the License.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#   * You may obtain a copy of the License at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#   * http://www.apache.org/licenses/LICENSE-2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#   * Unless required by applicable law or agreed to in writing, software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#   * distributed under the License is distributed on an "AS IS" BASIS,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#   * WITHOUT WARRANTIES OR CONDITIONS OF ANY KIND, either express or implied.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#   * See the License for the specific language governing permissions and</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#   Special thanks to Olga Patterson and Guy Divita for contributing rules as part of this rule set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Define which features will be assigned values in an annotation type ("Concept" in this case)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@CONCEPT_FEATURES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certainty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temporality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experiencer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Define the values that a feature can have, the 1st value is the default value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#The following definitions will be used as an index for FastContext to find the corresponding Feature to assign the modifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#value, once a modifier value is available.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#In this case the "Negation" feature has two values: "affirm" and "negated", "affirm" is the default value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@FEATURE_VALUES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">affirm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">certain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uncertain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">historical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hypothetical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nonpatient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#rule string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trigger type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">window size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; 0 -month of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trigger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; 0 -months of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; 0 -year of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; 0 -years of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; 0 month ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">backward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; 0 month of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; 0 months ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; 0 months of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; 0 year ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; 0 year of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; 0 years ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; 0 years of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; 0 yrs ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; 1 -week of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; 1 -weeks of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; 1 week ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; 1 week of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; 1 weeks ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; 1 weeks of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; 13 -day of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; 13 -days of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; 13 day of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; 13 days of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#\w+ no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">termination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\w+ no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">absence of a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">absence of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adequate to rule her out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adequate to rule her out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adequate to rule him out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adequate to rule him out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adequate to rule out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adequate to rule out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adequate to rule the patient out against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adequate to rule the patient out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adequate to rule the patient out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#after</t>
+  </si>
+  <si>
+    <t xml:space="preserve">both</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pseudo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">although</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Shock, resolved unknown etiology, Patient presents with encephalopathy, non focal neurologic exam, CN nerve exam WNL.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presents with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presented with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and \w+ \w+ shown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and \w+ \w+ shows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and \w+ \w+ show</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and \w+ shown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and \w+ shows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and \w+ show</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and did</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and he had</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and he was noted to have</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and he was</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and noted to have</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and she had</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and she was noted to have</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and she was</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and the patient had</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and the patient was</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and with only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">any other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#window size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apart from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">appears to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">are negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">are no longer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">are ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">are stopped</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a  for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a cause for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a cause of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a etiology for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a etiology of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a reason for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a reason of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a secondary cause for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a secondary cause of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a secondary etiology for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a secondary etiology of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a secondary origin for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a secondary origin of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a secondary reason for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a secondary reason of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a secondary source for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a secondary source of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a source for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a source of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an cause for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an cause of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an etiology for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an etiology of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an origin for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an origin of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an reason for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an reason of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an secondary cause for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an secondary cause of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an secondary etiology for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an secondary etiology of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an secondary origin for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an secondary origin of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an secondary reason for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an secondary reason of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an secondary source for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an secondary source of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an source for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an source of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as has</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as needed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the cause for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the cause of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the etiology for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the etiology of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the origin for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the origin of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the reason for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the reason of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the secondary cause for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the secondary cause of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the secondary etiology for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the secondary etiology of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the secondary origin for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the secondary origin of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the secondary reason for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the secondary reason of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the secondary source for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the secondary source of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the source for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the source of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as well as any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aside from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as</t>
+  </si>
+  <si>
+    <t xml:space="preserve">at that time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">at this time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attempted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attempt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aunt's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aunt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be ruled out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be stopped</t>
+  </si>
+  <si>
+    <t xml:space="preserve">because</t>
+  </si>
+  <si>
+    <t xml:space="preserve">being ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beyond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biopsy of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">borderline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brother's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brothers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brother</t>
+  </si>
+  <si>
+    <t xml:space="preserve">but</t>
+  </si>
+  <si>
+    <t xml:space="preserve">##</t>
+  </si>
+  <si>
+    <t xml:space="preserve">by \w+ family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">by family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">by the</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can be ruled out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can be ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can rule her out against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can rule her out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can rule her out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can rule him out against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can rule him out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can rule him out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can rule out against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can rule out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can rule out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can rule the patient out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can rule the patinet out against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can rule the patinet out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#cannot be completely excluded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#cannot be excluded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#cannot be fully excluded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cannot see</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cannot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cause for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cause of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">causes for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">causes of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">checked for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clear of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">come back for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">come back to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">complains</t>
+  </si>
+  <si>
+    <t xml:space="preserve">concern for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">concerned about</t>
+  </si>
+  <si>
+    <t xml:space="preserve">concerned for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">concerning for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#consistent with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">could be either</t>
+  </si>
+  <si>
+    <t xml:space="preserve">could be</t>
+  </si>
+  <si>
+    <t xml:space="preserve">could be ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">could be ruled out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">currently</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dad called</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dad's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">daughter called</t>
+  </si>
+  <si>
+    <t xml:space="preserve">daughter reported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">daughter reports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">daughters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">daughter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decided</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">declined</t>
+  </si>
+  <si>
+    <t xml:space="preserve">declines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied any abnormal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied any change in the</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied any changes in the</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied any current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied any high risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied any high-risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied any history of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied any other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied any problems of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied any problems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied any recent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied any significant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied any symptom of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied any symptoms of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied ever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied other symptoms of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied problems with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied symptoms of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied that there was any current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied that there was any history of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied that there was any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied that there was ever history of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied that there was ever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied that there was history of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied that there was problems of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied that there was problems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied that there were any history of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied that there were any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied that there were ever history of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied that there were ever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied that there were history of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied that there were problems of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied that there were problems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied this</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied use of other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied use of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies any abnormal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies any change in the</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies any changes in the</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies any current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies any high risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies any high-risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies any history of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies any other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies any problems of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies any problems with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies any problems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies any recent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies any significant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies any symptom of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies any symptoms of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies any undue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies ever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies problems with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies significant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies symptoms of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies there was any current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies there was any history of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies there was any recent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies there was any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies there was ever history of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies there was ever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies there was history of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies there was problems of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies there was problems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies there were any history of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies there were any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies there were ever history of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies there were ever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies there were history of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies there were problems of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies there were problems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies this</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies use of other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies use of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denying</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did have</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did not have any episodes of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did not have any more episodes of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did not have any problems with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did not observe a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did not rule out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did rule her out against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did rule her out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did rule her out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did rule him out against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did rule him out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did rule him out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did rule out against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did rule out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did rule out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did rule the patient out against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did rule the patient out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did rule the patient out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did show</t>
+  </si>
+  <si>
+    <t xml:space="preserve">didn't express any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">didn't expressed any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">didn't have any problems with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">didn't report any problems with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">didn't report any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">does have</t>
+  </si>
+  <si>
+    <t xml:space="preserve">differential also includes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">differential diagnoses also includes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">differential diagnoses includes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">differential includes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">does not appear to have any bizarre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">does not appear to have any issues of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">does not appear to have any issues with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">does not appear to have any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">does not express</t>
+  </si>
+  <si>
+    <t xml:space="preserve">does not use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">does not usually</t>
+  </si>
+  <si>
+    <t xml:space="preserve">does not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doesn't look like</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doubt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">due to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ecchymoses to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emergency department</t>
+  </si>
+  <si>
+    <t xml:space="preserve">etiology for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">etiology of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exacerbation from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exam to assess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">examination assess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">examination to assess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">examinations to assess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exams to assess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">except</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f/h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fails to reveal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">false negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fam hx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family said</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family stated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family told</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">father called</t>
+  </si>
+  <si>
+    <t xml:space="preserve">father's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">father</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#final report indication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for presumed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">free air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">free fluid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">free of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">free t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">free wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">free water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given \w+ history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given her history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given his history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given patient s history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given that</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given the fact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given the history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given the severity of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gram negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grandfather's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grandfather</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grandmother's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grandmother</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">had a negative \w+ for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has a negative \w+ for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has been negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has been ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has not had any problems with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has not had any problems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has not had any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have a negative \w+ for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have been ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">he continued to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">her old</t>
+  </si>
+  <si>
+    <t xml:space="preserve">his old</t>
+  </si>
+  <si>
+    <t xml:space="preserve">history and examination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">history and physical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">history and</t>
+  </si>
+  <si>
+    <t xml:space="preserve">history for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">history of chief complaint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">history of present illness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">history physical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">history taking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">however</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in her</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in his</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in the past</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in the setting of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inconsistent with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#indication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is no longer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is stopped</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is to be ruled out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is to be ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isn't</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lack of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lacked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last &gt; 0 month ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last &gt; 0 months ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last &gt; 0 year ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last &gt; 0 years ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last &gt; 0 yrs ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last &gt; 1 week ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last &gt; 1 weeks ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last april</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last august</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last december</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last fall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last february</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last january</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last july</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last june</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last march</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last may</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last november</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last october</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last september</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last spring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last summer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last winter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">likely component of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">likely contributors to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">likely from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">likely in setting of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">likely reflecting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">likely</t>
+  </si>
+  <si>
+    <t xml:space="preserve">look for any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">look for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">markedly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">may be \w+ underestimated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">may be contributing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">may be due to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">may be related to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">may be ruled out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">may be ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">may be underestimated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">may be unmasking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">may be</t>
+  </si>
+  <si>
+    <t xml:space="preserve">may have been preceded by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">may have</t>
+  </si>
+  <si>
+    <t xml:space="preserve">may represent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">might be ruled out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">might be ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">might be</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mildly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mild</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mom called</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mom's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monitor \w+ for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monitor the \w+ for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mother called</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mother's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mother</t>
+  </si>
+  <si>
+    <t xml:space="preserve">must be ruled out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">must be ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neg for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neg.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neighbor called</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neighbors called</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neighbors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neighbor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neighbour called</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neighbours called</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neighbours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neighbour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">never any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">never developed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">never had</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nevertheless</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no \w+ evid of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no \w+ evid to suggest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no \w+ evid to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no \w+ evidence of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no \w+ evidence to suggest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no \w+ evidence to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no \w+ evidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no \w+ evid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no \w+ was given</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no abnormal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no acute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no additional significant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no apparent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no cause of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no complaints of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no definite change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no e/o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no e o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no evidence of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no evidence to suggest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no evidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no findings of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no findings to indicate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no findings to suggest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no h o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no history of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no hx of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no indication of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no indications of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no interval change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no known history of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no known hx of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no longer present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no longer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no major</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no mammographic evidence of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no mention of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no new evidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no new</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no other evidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no other symptoms of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no problems with '</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no radiographic evidence of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no recurrent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no reported mention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no reported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no residual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no sign of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no significant change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no significant interval change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no significant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no signs of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no signs or symptoms of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no sign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no suggestion of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no suspicious change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no suspicious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no sxs of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no visable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">non diagnostic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nor all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nor any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not a current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not appear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not appreciate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not associated with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not attempted given</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not been ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not cause</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not certain if</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not certain whether</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not complain of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not demonstrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not drain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not exhibit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not extend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not feel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not had</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not have evidence of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not have</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not in acute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not interested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not know of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not known to have</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not necessarily</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not reveal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not see</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not solve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not to be</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">now resolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#-Possibility of current pregnancy   yes, using condoms  -Currently using IUD for contraception   no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">origin for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">origin of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">origins for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">origins of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other possibilities of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ought to be ruled out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ought to be ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">past history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">past medical history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patient continued to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patient was not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patient's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poor history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">possibility of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">possible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">possibly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presenting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presumably</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presumed to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prior to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">probable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">probably</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prophylaxis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">question was</t>
+  </si>
+  <si>
+    <t xml:space="preserve">questioned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rather than</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reason for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reason of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reasons for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reasons of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">return</t>
+  </si>
+  <si>
+    <t xml:space="preserve">risk of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roommate called</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roommates called</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roommates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roommate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rule her out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rule her out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rule him out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rule him out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rule out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rule out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rule the patient out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rule the patinet out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruled her out against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruled her out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruled her out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruled him out against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruled him out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruled him out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruled out against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruled out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruled the patient out against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruled the patient out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruled the patient out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rules her out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rules her out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rules him out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rules him out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rules out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rules out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rules the patient out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rules the patient out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">secondary to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">secondary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">she continued to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">should be ruled out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">should be ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">should he</t>
+  </si>
+  <si>
+    <t xml:space="preserve">should she</t>
+  </si>
+  <si>
+    <t xml:space="preserve">should the patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">should there</t>
+  </si>
+  <si>
+    <t xml:space="preserve">show a question of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shown a question of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">since april</t>
+  </si>
+  <si>
+    <t xml:space="preserve">since august</t>
+  </si>
+  <si>
+    <t xml:space="preserve">since december</t>
+  </si>
+  <si>
+    <t xml:space="preserve">since fall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">since february</t>
+  </si>
+  <si>
+    <t xml:space="preserve">since january</t>
+  </si>
+  <si>
+    <t xml:space="preserve">since july</t>
+  </si>
+  <si>
+    <t xml:space="preserve">since june</t>
+  </si>
+  <si>
+    <t xml:space="preserve">since march</t>
+  </si>
+  <si>
+    <t xml:space="preserve">since may</t>
+  </si>
+  <si>
+    <t xml:space="preserve">since november</t>
+  </si>
+  <si>
+    <t xml:space="preserve">since october</t>
+  </si>
+  <si>
+    <t xml:space="preserve">since september</t>
+  </si>
+  <si>
+    <t xml:space="preserve">since spring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">since summer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">since winter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sister's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sisters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sister called</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sister reported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sister reports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">social history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">son called</t>
+  </si>
+  <si>
+    <t xml:space="preserve">son reported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">son reports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">son</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sources for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sources of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">speaking with family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spoke with family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">states</t>
+  </si>
+  <si>
+    <t xml:space="preserve">status post</t>
+  </si>
+  <si>
+    <t xml:space="preserve">still</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stopped taking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">studies to assess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">study to assess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sudden onset of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sufficient to rule her out against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sufficient to rule her out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sufficient to rule her out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sufficient to rule him out against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sufficient to rule him out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sufficient to rule him out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sufficient to rule out against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sufficient to rule out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sufficient to rule out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sufficient to rule the patient out against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sufficient to rule the patient out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sufficient to rule the patient out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suggestive of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suggest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suspected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suspicion for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suspicious for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talked with family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talking with family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the presumed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">though</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to evaluate for any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to prevent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">today</t>
+  </si>
+  <si>
+    <t xml:space="preserve">treatment of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trigger event for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uncle's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unclear dose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unclear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uncle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unlikely</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unremarkable for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w/o evidence of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w/o evidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w/o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w o evidence of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w o evidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wants to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">was found negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">was found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">was initially suspected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">was instructed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">was negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">was noted to be negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">was not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">was ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">was stopped by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">was stopped due to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">was stopped</t>
+  </si>
+  <si>
+    <t xml:space="preserve">was suspected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wasn't</t>
+  </si>
+  <si>
+    <t xml:space="preserve">were instructed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">were stopped</t>
+  </si>
+  <si>
+    <t xml:space="preserve">were totally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what must be ruled out is</t>
+  </si>
+  <si>
+    <t xml:space="preserve">whether or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">which</t>
+  </si>
+  <si>
+    <t xml:space="preserve">while</t>
+  </si>
+  <si>
+    <t xml:space="preserve">who are not present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">will be ruled out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">will be ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with \w+ dad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with \w+ daughter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with \w+ father</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with \w+ mom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with \w+ mother</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with \w+ son</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with a question of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without \w+ evidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without abnormal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without additional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without any evidence of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without an</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without apparent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without audible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without becoming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without being</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without causing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without difficulties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without difficulty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without evidence of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without evidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without experiencing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without further</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without gross</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without having</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without increased</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without indication of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without major</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without maximally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without mention of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without much</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without new</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without noted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without noticed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without obvious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without painful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without paraspinal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without peripheral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without purulent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without reported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without sign of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without significant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without signs of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without some</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without success</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without the</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without upward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without using</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without visible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without vital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without which</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without</t>
+  </si>
+  <si>
+    <t xml:space="preserve">worried about</t>
+  </si>
+  <si>
+    <t xml:space="preserve">worrisome for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with resolution of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">call</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">## if tokenize include punctuations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w / o evidence of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w / o evidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w / o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f / h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h / o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no e / o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no h / o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r / o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; 13 - day of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; 13 - days of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; 0 - month of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; 0 - months of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; 0 - year of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; 0 - years of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dont</t>
+  </si>
+  <si>
+    <t xml:space="preserve">don t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">high risk for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">at risk for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">don ' t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monitor for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monitored for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">low probability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">high risk of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">at risk of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">panel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evaluation for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evaluation of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eval for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eval of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assess for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assess of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">now</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evaluate for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evalaute for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">history of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#IUD removed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">removed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">removal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#at which time I removed a Mirena IUD that had been placed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">counseled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">counsel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">considers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">considering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">considered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">desire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">desires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">desired</t>
+  </si>
+  <si>
+    <t xml:space="preserve">would like</t>
+  </si>
+  <si>
+    <t xml:space="preserve">returns for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cannot feel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">couldn't feel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can't feel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evaluation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evaluated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evaluate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Signed tubal consent, implanon info given.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info given</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info was given</t>
+  </si>
+  <si>
+    <t xml:space="preserve">information given</t>
+  </si>
+  <si>
+    <t xml:space="preserve">information was given</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insertion of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interested in</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># In prep for copper IUD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prep for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Educated patient on various contraception devices including OCPs  Nuvaring  Implanon  Depo  Mirena and ParaGard  OCP Nuvari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">educated patient on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">educate patient on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">educated patient about</t>
+  </si>
+  <si>
+    <t xml:space="preserve">educate patient about</t>
+  </si>
+  <si>
+    <t xml:space="preserve">educated patient regarding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">educate patient regarding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Patient demonstrates understanding of these risks and choose to schedule the copper IUD  Aptima pending</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schedule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Assessment/Plan: 1. IUD consultation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consultation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consulted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#We discussed IUD contraception at length and</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discussed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discuss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Unintended pregnancy was waiting for IUD insertion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">waiting for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Failed attempt at Mirena IUD insertion 8 09 due to stenotic cervix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">failed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Offered her IUD, or depo shot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">offered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">offer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Possibility of current pregnancy   yes  using condoms   Currently using IUD for contraception   no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Looking for contraception plan asIUDROS    Chest pain  no  Difficulty breathing  no  Fever  no  Leg pain or swelling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">looking for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#She chose to follow up with Dr  Shutts Karjola for a postpartum tubal ligation versus IUD insertion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">versus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#In addition  the patient was educated about the need for birth control while on lithium  and she agreed to see an OB GYN or primary care physician to have anotherIUDplaced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agreed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to have</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#The patient has chosen to haveIUDas postpartum contraception and would like to have a Depo Provera shot in the interim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chosen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#2  Tylenol 325 500mg by mouth as needed   3IUDPlacement prn birth control   4  Celebrex 200mg by mouth once daily x 1 week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Duration of Warfarin Therapy: Indefinite while on IUD with yearly assessments - per Dr. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">indefinite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Informed her that since she has already tried the Implanon and Provera  that we should try a continuous BC or aMirenato stabilize her cycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">should try</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Pt requests a 10 year contraception.  Informed pt re: Paragard at South Main. Need to abstain from sex until insertion, and wait 8 weeks PP. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">informed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">until</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Reviewed 3rd tri warning sx. Plans IUD for BCM.  RTC 2 weeks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">planned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">planning</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Given information on both endometrial ablation andMirenaas possible treatments to dysmenorrhea depending on results of ultrasound  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">given information on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given information about</t>
+  </si>
+  <si>
+    <t xml:space="preserve">give information on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">give information about</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Date contraception stopped: 09/04/10  Type of contraception: mirena iud </t>
+  </si>
+  <si>
+    <t xml:space="preserve">contraception stopped</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Also reviewed with pt LARC options includingMirena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Precautions reviewed   RTC 4 wk for pap IUD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reviewed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Mirena IUD mechanisms of actions, side effects and placement reviewed, pt to do GC/CT at next visit  5.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Other options including implanon IUD vaginal ring  and depo provera discussed but patient declines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">options including</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Uncomfortable with idea of IUD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idea of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Still has dysmenorrhea x 2 days associated with n/v. Other physician recommended Mirena IUD.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recommendation for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recommended</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recommend</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># she only reports using the mirena for less than a month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for less than \w month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for less than \w months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Post partum contraception  still deciding has been given handouts on Mirena Paraguard  and Implanon   5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deciding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#She has not previously heard about the nuva ringIUDimplannon  or other forms of birth control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heard about</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Provided patient with nuvaRing x 2 samples to cover her until she makes decision regardingIUDplacement vs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">makes decision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">made decision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">make decision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Provided pamphlets aboutmirenaparagaurd  nuvaring  implannon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">provided</t>
+  </si>
+  <si>
+    <t xml:space="preserve">provide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pamphlets about</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pamphlet about</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Patient hoping forIUDmirena as noted in the above problem  which will likely decrease bleeding after 3 6 months of irregular bleeding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hoping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hoped</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Counseled her about keeping implanon, she declines.  Offered her IUD, or depo shot. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Contraception: Mirena at 6wk PPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">at \w+ wk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">at \w+ weeks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">after \w+ wk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">after \w+ weeks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Gave depo shot today, gave literature for Mirena IUD- pt does not want more kids, has heavy painful periods.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">literature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Past surgical history 9/2/06     IUD perforated her uterus and was in abdomen, also teratoma that was removed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">past \w+ history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Next follow up was normal  unsure of type of abnormality   Personal history of sexually transmitted infection  STI    Not sure  was tx empirically for chlamydia and sx did not change   Current method of contraceptionIUDDate of last pap smear  Went to plan parent hood a couple weeks ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">current method of contraception</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Pt desires, will schedule f/u appt.  3. RTC for IUD    Mallorie J Evenson, MD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">will schedule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTC for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Mirena IUD can be other option to help stop heavy bleeding which uses more local hormones and does not risk systemic side effects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can be \w+ option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can be \w+ options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is \w+ option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">are \w+ options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can stop periods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">could stop periods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">may stop periods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">might stop periods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#ASSESSMENT/PLAN   V25.9 Contraception management  (primary encounter diagnosis)  Comment  IUD is a good choice for this patient  Plan  Patient will let me know if she wants to have IUD placed.     078.10 Warts  Comment  typical warts  Plan  follow up for wart tx      After-visit summary (AVS) was given to the patient and information reviewed with patient.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is a \w+ choice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assessment / plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># 9) Contraception: IUD after delivery, does not want BTL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">after delivery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#She was also on Yaz for a long period of time with no improvement and currently has a mirena IUD.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">currently has</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Rx for micronor, info on Mirena given.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infor on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info about</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infor about</t>
+  </si>
+  <si>
+    <t xml:space="preserve">information about</t>
+  </si>
+  <si>
+    <t xml:space="preserve">information on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Our preference would be for an IUD and she is scheduled to go to her gynecologist at the end of July for a Pap smear, and if Pap smear is normal, she would address placing an IUD.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preference would be</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preference is</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preference are</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Encouraged to consider less invasive options, esp Mirena.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to consider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Patient is nervous to try the Mirena because of experience she had with the Implanon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to try</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#2. PP Contraception  Has had Mirena IUD in past, but did not like secondary to pain.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in past</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#IUD's IU IUD None Entered </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Did try depo provera.  Has never tried implanon, IUD or mini pill. Thing that bothers patient most about periods is pain.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">never</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Pap done  Mirena IUD discussed  Gc / Ct screen  To Dr Turok for IUD insertion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#At this point, having outlined our recommendation for mirena IUD, she has elected to think about this and get back to us. Her primary OB can place her mirena. If this were to fail and surgery was her only option, we could reconsider.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Given any thought to what form of birth control you want? Yes, IUD or diaphragm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">or</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Had her Mirena taken out in April and then conceived in August.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taken out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Discussed contraception. Information given on sterilization and IUD's.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info given on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infor given on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info given about</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infor given about</t>
+  </si>
+  <si>
+    <t xml:space="preserve">information given about</t>
+  </si>
+  <si>
+    <t xml:space="preserve">information given on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Good response to OCP. I advised she resume OCP or take progesterone in some form   Depo, IUD, cyclic provera to prevent endometrial cancer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">advised she</t>
+  </si>
+  <si>
+    <t xml:space="preserve">advised her</t>
+  </si>
+  <si>
+    <t xml:space="preserve">advise she</t>
+  </si>
+  <si>
+    <t xml:space="preserve">advise her</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Pap not done since   21 yo.    2.  Contraception - Briefly outlined non-pill forms of reversible contraception including   Vaginal ring, patches, implants, IUDs, Depo injection and barrier methods.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outlined</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#After our discussion, the patient is leaning towards the Mirena IUD.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leaning towards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lean towards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leans towards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leaned towards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Previously used Mirena in past and tried pills that triggered migraines.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#At this time, patient would prefer Micronor, but will look into options such as IUD a little more.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">such as</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e . g .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">options like</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Post partum contraception  still deciding has been given handouts on Mirena, Paraguard, and Implanon   5.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">handouts on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">handouts about</t>
+  </si>
+  <si>
+    <t xml:space="preserve">handouts regarding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">handout on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">handout about</t>
+  </si>
+  <si>
+    <t xml:space="preserve">handout regarding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#She uses condoms for contraception.  Wants an IUD.     Allergies  NKDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">want</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wanted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#A Mirena IUD would also be a good treatment, but would need to be inserted under a general anesthetic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">would</t>
+  </si>
+  <si>
+    <t xml:space="preserve">will</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#The Mirena wouldn't prevent ovulation though.  RTC 2-3 mos or earlier prn for f/u.  All of the patient's questions were answered and she demonstrates verbal understanding of the plan of care.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wouldn ' t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wouldn't</t>
+  </si>
+  <si>
+    <t xml:space="preserve">won't</t>
+  </si>
+  <si>
+    <t xml:space="preserve">won ' t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#9) Contraception  IUD after delivery, does not want BTL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Pt chose IUD at postpartum visit as post-partum contraception.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">postpartum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">post partum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">post - partum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#She would like to avoid surgery and is going to start taking Vit d, spoke with Sandy who recommended 2000 iud.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#- I am worried that Mirena may complicate abdominal pain management.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">worried</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Plan  TSH, ASSAY OF ACTH, TOTAL CORTISOL    V25.9 Birth control  Comment  Discussed options.  Plan IUD next month.  Plan  TSH, ASSAY OF ACTH, TOTAL CORTISOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#She has used condoms, an IUD, and BCP but had some problems with these.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#The patient chose to obtain a paragard as contraception at her postpartum visit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chooses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#She stated she has received the information from Dr. Chaudhari but looked it up online and was concerned about  being able to feel the IUD  in place.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">received the information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Brought her a sample of the Mirena and let her feel the strings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#She had a miscarriage in July 2010 after becoming pregnancy soon after stopping DepoProvera that she use for a year.  She used an IUD for about 2 years before that.  She has a lot of nausea and vomiting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for about &gt; 0 year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for about &gt; 1 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Mirena IUD, concerned about effects of exogenous hormones on mood.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">concerned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Minipill today.  IUD in 5 wks.  RTC 3 wks or earlier prn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in &gt; 1 weeks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in &gt; 1  wks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#She tried the Mirena IUD and had bleeding for 3 months and had to have it out.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tried</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have it out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">had it out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taken it out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">take it out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">take out</t>
   </si>
   <si>
     <r>
       <rPr>
+        <b val="true"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color rgb="FF89CFF0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>#Still has dysmenorrhea x 2 days associated with n/v. Other physician recommended </t>
+      <t xml:space="preserve">#Pt given </t>
     </r>
     <r>
       <rPr>
@@ -3169,692 +3656,31 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>Mirena IUD.</t>
+      <t xml:space="preserve">Mirena pamphlet as a possibility for non-estrogen contraception given HTN.</t>
     </r>
   </si>
   <si>
-    <t>recommendation for</t>
-  </si>
-  <si>
-    <t>recommended</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t># she only reports using the mirena for less than a month</t>
-  </si>
-  <si>
-    <t>for less than \w month</t>
-  </si>
-  <si>
-    <t>for less than \w months</t>
-  </si>
-  <si>
-    <t>#Post partum contraception  still deciding has been given handouts on Mirena Paraguard  and Implanon   5</t>
-  </si>
-  <si>
-    <t>deciding</t>
-  </si>
-  <si>
-    <t>#She has not previously heard about the nuva ringIUDimplannon  or other forms of birth control</t>
-  </si>
-  <si>
-    <t>heard about</t>
-  </si>
-  <si>
-    <t>#Provided patient with nuvaRing x 2 samples to cover her until she makes decision regardingIUDplacement vs</t>
-  </si>
-  <si>
-    <t>makes decision</t>
-  </si>
-  <si>
-    <t>made decision</t>
-  </si>
-  <si>
-    <t>make decision</t>
-  </si>
-  <si>
-    <t>#Provided pamphlets aboutmirenaparagaurd  nuvaring  implannon</t>
-  </si>
-  <si>
-    <t>provided</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>pamphlets about</t>
-  </si>
-  <si>
-    <t>pamphlet about</t>
-  </si>
-  <si>
-    <t>#Patient hoping forIUDmirena as noted in the above problem  which will likely decrease bleeding after 3 6 months of irregular bleeding</t>
-  </si>
-  <si>
-    <t>hoping</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>hoped</t>
-  </si>
-  <si>
-    <t># Counseled her about keeping implanon, she declines.  Offered her IUD, or depo shot. </t>
-  </si>
-  <si>
-    <t>#Contraception: Mirena at 6wk PPE</t>
-  </si>
-  <si>
-    <t>at \w+ wk</t>
-  </si>
-  <si>
-    <t>at \w+ weeks</t>
-  </si>
-  <si>
-    <t>after \w+ wk</t>
-  </si>
-  <si>
-    <t>after \w+ weeks</t>
-  </si>
-  <si>
-    <t>#Gave depo shot today, gave literature for Mirena IUD- pt does not want more kids, has heavy painful periods.</t>
-  </si>
-  <si>
-    <t>literature</t>
-  </si>
-  <si>
-    <t>#Past surgical history 9/2/06     IUD perforated her uterus and was in abdomen, also teratoma that was removed.</t>
-  </si>
-  <si>
-    <t>past \w+ history</t>
-  </si>
-  <si>
-    <t>#Next follow up was normal  unsure of type of abnormality   Personal history of sexually transmitted infection  STI    Not sure  was tx empirically for chlamydia and sx did not change   Current method of contraceptionIUDDate of last pap smear  Went to plan parent hood a couple weeks ago</t>
-  </si>
-  <si>
-    <t>current method of contraception</t>
-  </si>
-  <si>
-    <t>#Pt desires, will schedule f/u appt.  3. RTC for IUD    Mallorie J Evenson, MD</t>
-  </si>
-  <si>
-    <t>will schedule</t>
-  </si>
-  <si>
-    <t>RTC for</t>
-  </si>
-  <si>
-    <t>#Mirena IUD can be other option to help stop heavy bleeding which uses more local hormones and does not risk systemic side effects.</t>
-  </si>
-  <si>
-    <t>can be \w+ option</t>
-  </si>
-  <si>
-    <t>can be \w+ options</t>
-  </si>
-  <si>
-    <t>is \w+ option</t>
-  </si>
-  <si>
-    <t>are \w+ options</t>
-  </si>
-  <si>
-    <t>can stop periods</t>
-  </si>
-  <si>
-    <t>could stop periods</t>
-  </si>
-  <si>
-    <t>may stop periods</t>
-  </si>
-  <si>
-    <t>might stop periods</t>
-  </si>
-  <si>
-    <t>#ASSESSMENT/PLAN   V25.9 Contraception management  (primary encounter diagnosis)  Comment  IUD is a good choice for this patient  Plan  Patient will let me know if she wants to have IUD placed.     078.10 Warts  Comment  typical warts  Plan  follow up for wart tx      After-visit summary (AVS) was given to the patient and information reviewed with patient.</t>
-  </si>
-  <si>
-    <t>is a \w+ choice</t>
-  </si>
-  <si>
-    <t>assessment / plan</t>
-  </si>
-  <si>
-    <t># 9) Contraception: IUD after delivery, does not want BTL</t>
-  </si>
-  <si>
-    <t>after delivery</t>
-  </si>
-  <si>
-    <t>#She was also on Yaz for a long period of time with no improvement and currently has a mirena IUD.</t>
-  </si>
-  <si>
-    <t>currently has</t>
-  </si>
-  <si>
-    <t>#Rx for micronor, info on Mirena given.</t>
-  </si>
-  <si>
-    <t>info on</t>
-  </si>
-  <si>
-    <t>infor on</t>
-  </si>
-  <si>
-    <t>info about</t>
-  </si>
-  <si>
-    <t>infor about</t>
-  </si>
-  <si>
-    <t>information about</t>
-  </si>
-  <si>
-    <t>information on</t>
-  </si>
-  <si>
-    <t>#Our preference would be for an IUD and she is scheduled to go to her gynecologist at the end of July for a Pap smear, and if Pap smear is normal, she would address placing an IUD.</t>
-  </si>
-  <si>
-    <t>preference would be</t>
-  </si>
-  <si>
-    <t>preference is</t>
-  </si>
-  <si>
-    <t>preference are</t>
-  </si>
-  <si>
-    <t>#Encouraged to consider less invasive options, esp Mirena.</t>
-  </si>
-  <si>
-    <t>to consider</t>
-  </si>
-  <si>
-    <t>#Patient is nervous to try the Mirena because of experience she had with the Implanon.</t>
-  </si>
-  <si>
-    <t>to try</t>
-  </si>
-  <si>
-    <t>#2. PP Contraception  Has had Mirena IUD in past, but did not like secondary to pain.</t>
-  </si>
-  <si>
-    <t>in past</t>
-  </si>
-  <si>
-    <t>#IUD's IU IUD None Entered </t>
-  </si>
-  <si>
-    <t>#Did try depo provera.  Has never tried implanon, IUD or mini pill. Thing that bothers patient most about periods is pain.</t>
-  </si>
-  <si>
-    <t>never</t>
-  </si>
-  <si>
-    <t>#Pap done  Mirena IUD discussed  Gc / Ct screen  To Dr Turok for IUD insertion </t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>#At this point, having outlined our recommendation for mirena IUD, she has elected to think about this and get back to us. Her primary OB can place her mirena. If this were to fail and surgery was her only option, we could reconsider.</t>
-  </si>
-  <si>
-    <t>can place</t>
-  </si>
-  <si>
-    <t>#Given any thought to what form of birth control you want? Yes, IUD or diaphragm</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>or</t>
-  </si>
-  <si>
-    <t>#Had her Mirena taken out in April and then conceived in August.</t>
-  </si>
-  <si>
-    <t>taken out</t>
-  </si>
-  <si>
-    <t>#Discussed contraception. Information given on sterilization and IUD's.</t>
-  </si>
-  <si>
-    <t>info given on</t>
-  </si>
-  <si>
-    <t>infor given on</t>
-  </si>
-  <si>
-    <t>info given about</t>
-  </si>
-  <si>
-    <t>infor given about</t>
-  </si>
-  <si>
-    <t>information given about</t>
-  </si>
-  <si>
-    <t>information given on</t>
-  </si>
-  <si>
-    <t>#Good response to OCP. I advised she resume OCP or take progesterone in some form   Depo, IUD, cyclic provera to prevent endometrial cancer.</t>
-  </si>
-  <si>
-    <t>advised she</t>
-  </si>
-  <si>
-    <t>advised her</t>
-  </si>
-  <si>
-    <t>advise she</t>
-  </si>
-  <si>
-    <t>advise her</t>
-  </si>
-  <si>
-    <t>#Pap not done since   21 yo.    2.  Contraception - Briefly outlined non-pill forms of reversible contraception including   Vaginal ring, patches, implants, IUDs, Depo injection and barrier methods.</t>
-  </si>
-  <si>
-    <t>outlined</t>
-  </si>
-  <si>
-    <t>#After our discussion, the patient is leaning towards the Mirena IUD.</t>
-  </si>
-  <si>
-    <t>leaning towards</t>
-  </si>
-  <si>
-    <t>lean towards</t>
-  </si>
-  <si>
-    <t>leans towards</t>
-  </si>
-  <si>
-    <t>leaned towards</t>
-  </si>
-  <si>
-    <t>#Previously used Mirena in past and tried pills that triggered migraines.</t>
-  </si>
-  <si>
-    <t>#At this time, patient would prefer Micronor, but will look into options such as IUD a little more.</t>
-  </si>
-  <si>
-    <t>such as</t>
-  </si>
-  <si>
-    <t>e . g .</t>
-  </si>
-  <si>
-    <t>options like</t>
-  </si>
-  <si>
-    <t>#Post partum contraception  still deciding has been given handouts on Mirena, Paraguard, and Implanon   5.</t>
-  </si>
-  <si>
-    <t>handouts on</t>
-  </si>
-  <si>
-    <t>handouts about</t>
-  </si>
-  <si>
-    <t>handouts regarding</t>
-  </si>
-  <si>
-    <t>handout on</t>
-  </si>
-  <si>
-    <t>handout about</t>
-  </si>
-  <si>
-    <t>handout regarding</t>
-  </si>
-  <si>
-    <t>#She uses condoms for contraception.  Wants an IUD.     Allergies  NKDA</t>
-  </si>
-  <si>
-    <t>wants</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>wanted</t>
-  </si>
-  <si>
-    <t>#A Mirena IUD would also be a good treatment, but would need to be inserted under a general anesthetic.</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>will</t>
-  </si>
-  <si>
-    <t>#The Mirena wouldn't prevent ovulation though.  RTC 2-3 mos or earlier prn for f/u.  All of the patient's questions were answered and she demonstrates verbal understanding of the plan of care.</t>
-  </si>
-  <si>
-    <t>wouldn ' t</t>
-  </si>
-  <si>
-    <t>wouldn't</t>
-  </si>
-  <si>
-    <t>won't</t>
-  </si>
-  <si>
-    <t>won ' t</t>
-  </si>
-  <si>
-    <t>#9) Contraception  IUD after delivery, does not want BTL</t>
-  </si>
-  <si>
-    <t>#Pt chose IUD at postpartum visit as post-partum contraception.</t>
-  </si>
-  <si>
-    <t>postpartum</t>
-  </si>
-  <si>
-    <t>post partum</t>
-  </si>
-  <si>
-    <t>post - partum</t>
-  </si>
-  <si>
-    <t>#She would like to avoid surgery and is going to start taking Vit d, spoke with Sandy who recommended 2000 iud.</t>
-  </si>
-  <si>
-    <t>&gt; 0</t>
+    <t xml:space="preserve">pamphlet</t>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>#- I am worried that </t>
+      <t xml:space="preserve">#They were concerned re  how </t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Mirena may complicate abdominal pain management.</t>
-    </r>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>#Plan  TSH, ASSAY OF ACTH, TOTAL CORTISOL    V25.9 Birth control  Comment  Discussed options.  Plan </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>IUD next month.  Plan  TSH, ASSAY OF ACTH, TOTAL CORTISOL</t>
-    </r>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>#She has used condoms, an </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>IUD, and BCP but had some problems with these.</t>
-    </r>
-  </si>
-  <si>
-    <t>has used</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>#The patient chose to obtain a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>paragard as contraception at her postpartum visit.</t>
-    </r>
-  </si>
-  <si>
-    <t>chose</t>
-  </si>
-  <si>
-    <t>chooses</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>#She stated she has received the information from Dr. Chaudhari but looked it up online and was concerned about  being able to feel the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>IUD  in place.</t>
-    </r>
-  </si>
-  <si>
-    <t>received the information</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>#Brought her a sample of the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Mirena and let her feel the strings.</t>
-    </r>
-  </si>
-  <si>
-    <t>sample of</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>#She had a miscarriage in July 2010 after becoming pregnancy soon after stopping DepoProvera that she use for a year.  She used an </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>IUD for about 2 years before that.  She has a lot of nausea and vomiting.</t>
-    </r>
-  </si>
-  <si>
-    <t>for about &gt; 0 year</t>
-  </si>
-  <si>
-    <t>for about &gt; 1 years</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Mirena IUD, concerned about effects of exogenous hormones on mood.</t>
-    </r>
-  </si>
-  <si>
-    <t>concerned</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>#Minipill today.  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>IUD in 5 wks.  RTC 3 wks or earlier prn.</t>
-    </r>
-  </si>
-  <si>
-    <t>in &gt; 1 weeks</t>
-  </si>
-  <si>
-    <t>in &gt; 1  wks</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>#She tried the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Mirena IUD and had bleeding for 3 months and had to have it out.</t>
-    </r>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>have it out</t>
-  </si>
-  <si>
-    <t>had it out</t>
-  </si>
-  <si>
-    <t>taken it out</t>
-  </si>
-  <si>
-    <t>take it out</t>
-  </si>
-  <si>
-    <t>take out</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b val="true"/>
         <sz val="11"/>
         <color rgb="FF89CFF0"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <family val="0"/>
       </rPr>
-      <t>#Pt given </t>
+      <t xml:space="preserve">Mirena</t>
     </r>
     <r>
       <rPr>
@@ -3863,7 +3689,34 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Mirena</t>
+      <t xml:space="preserve"> may affect possible further workups that may be needed with abnormal bleeding.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">#Could place Mirena at same time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">could place</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">#She has been thinking about an </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF89CFF0"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">IUD</t>
     </r>
     <r>
       <rPr>
@@ -3872,11 +3725,152 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t> pamphlet as a possibility for non-estrogen contraception given HTN.</t>
+      <t xml:space="preserve"> for contraception.</t>
     </r>
   </si>
   <si>
-    <t>pamphlet</t>
+    <t xml:space="preserve">thinking about</t>
+  </si>
+  <si>
+    <t xml:space="preserve">think about</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thinks about</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thinked about</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">#</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF89CFF0"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Iud</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  IUD's are made of flexible plastic and must be inserted into your uterus by a doctor.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">made of</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">#Intrauterine device (IUD)  An </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF89CFF0"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">IUD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is a small device that is placed in the uterus to prevent pregnancy.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">is a device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is a \w+ device</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">#The </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF89CFF0"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">IUD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> works by stopping the fertilized egg from attaching itself to the uterus.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">by stopping</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF89CFF0"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">#IUDs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> may increase the risk of getting a pelvic infection (PID), which can lead to infertility if not diagnosed and treated early.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">increase the risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lead to infertility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cause infertility</t>
   </si>
 </sst>
 </file>
@@ -3884,10 +3878,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3910,6 +3904,87 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFED872D"/>
       <name val="Calibri"/>
@@ -3920,14 +3995,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF89CFF0"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -3944,6 +4011,14 @@
       <color rgb="FF89CFF0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF89CFF0"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3952,15 +4027,57 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -3968,8 +4085,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3993,8 +4125,56 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4007,45 +4187,65 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="22">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -4057,7 +4257,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -4073,7 +4273,7 @@
       <rgbColor rgb="FF89CFF0"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -4100,18 +4300,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1749"/>
+  <dimension ref="A1:F1778"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1726" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1750" activeCellId="0" sqref="E1750"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1740" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1775" activeCellId="0" sqref="D1775:D1777"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27294,7 +27495,7 @@
         <v>27</v>
       </c>
       <c r="E1397" s="0" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27311,7 +27512,7 @@
         <v>27</v>
       </c>
       <c r="E1398" s="0" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27328,7 +27529,7 @@
         <v>27</v>
       </c>
       <c r="E1399" s="0" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27345,7 +27546,7 @@
         <v>27</v>
       </c>
       <c r="E1400" s="0" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27362,7 +27563,7 @@
         <v>27</v>
       </c>
       <c r="E1401" s="0" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27379,7 +27580,7 @@
         <v>27</v>
       </c>
       <c r="E1402" s="0" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27396,7 +27597,7 @@
         <v>27</v>
       </c>
       <c r="E1403" s="0" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27413,7 +27614,7 @@
         <v>27</v>
       </c>
       <c r="E1404" s="0" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27430,7 +27631,7 @@
         <v>27</v>
       </c>
       <c r="E1405" s="0" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27447,7 +27648,7 @@
         <v>27</v>
       </c>
       <c r="E1406" s="0" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27464,7 +27665,7 @@
         <v>27</v>
       </c>
       <c r="E1407" s="0" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27481,7 +27682,7 @@
         <v>27</v>
       </c>
       <c r="E1408" s="0" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27498,7 +27699,7 @@
         <v>27</v>
       </c>
       <c r="E1409" s="0" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27515,7 +27716,7 @@
         <v>27</v>
       </c>
       <c r="E1410" s="0" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27532,7 +27733,7 @@
         <v>27</v>
       </c>
       <c r="E1411" s="0" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27549,7 +27750,7 @@
         <v>27</v>
       </c>
       <c r="E1412" s="0" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30406,17 +30607,17 @@
       </c>
     </row>
     <row r="1693" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1693" s="6" t="s">
+      <c r="A1693" s="5" t="s">
         <v>1170</v>
       </c>
     </row>
     <row r="1696" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1696" s="6" t="s">
+      <c r="A1696" s="5" t="s">
         <v>1171</v>
       </c>
     </row>
     <row r="1697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1697" s="6" t="s">
+      <c r="A1697" s="5" t="s">
         <v>1172</v>
       </c>
       <c r="B1697" s="0" t="s">
@@ -30433,7 +30634,7 @@
       </c>
     </row>
     <row r="1698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1698" s="6" t="s">
+      <c r="A1698" s="5" t="s">
         <v>1173</v>
       </c>
       <c r="B1698" s="0" t="s">
@@ -30450,7 +30651,7 @@
       </c>
     </row>
     <row r="1699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1699" s="6" t="s">
+      <c r="A1699" s="5" t="s">
         <v>1174</v>
       </c>
       <c r="B1699" s="0" t="s">
@@ -30467,7 +30668,7 @@
       </c>
     </row>
     <row r="1702" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1702" s="6" t="s">
+      <c r="A1702" s="5" t="s">
         <v>1175</v>
       </c>
     </row>
@@ -30896,7 +31097,7 @@
       </c>
     </row>
     <row r="1748" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1748" s="0" t="s">
+      <c r="A1748" s="6" t="s">
         <v>1205</v>
       </c>
     </row>
@@ -30917,10 +31118,300 @@
         <v>3</v>
       </c>
     </row>
+    <row r="1751" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1751" s="0" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="1752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1752" s="0" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B1752" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1752" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1752" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1752" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1754" s="0" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="1755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1755" s="0" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B1755" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1755" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1755" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1755" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1756" s="0" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B1756" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1756" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1756" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1756" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1758" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1758" s="0" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1759" s="0" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B1759" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1759" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1759" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1759" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1760" s="0" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B1760" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1760" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1760" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1760" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1761" s="0" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B1761" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1761" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1761" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1761" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1762" s="0" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B1762" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1762" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1762" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1762" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1764" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1764" s="0" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="1765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1765" s="0" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B1765" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1765" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1765" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1765" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1767" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1767" s="0" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="1768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1768" s="0" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B1768" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1768" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1768" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1768" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1769" s="0" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B1769" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1769" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1769" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1769" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1771" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1771" s="0" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="1772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1772" s="0" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B1772" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1772" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1772" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1772" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1774" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1774" s="7" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="1775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1775" s="0" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B1775" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1775" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1775" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1775" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1776" s="0" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B1776" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1776" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1776" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1776" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1777" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B1777" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1777" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1777" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1777" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1778" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="B1778" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1778" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1778" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1778" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
